--- a/Web_final/presentation/req.xlsx
+++ b/Web_final/presentation/req.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18315" windowHeight="11670" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18315" windowHeight="11670" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="req" sheetId="2" r:id="rId1"/>
     <sheet name="spec" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="요구사항 분석" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="190">
   <si>
     <t>테이블정의서</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -506,6 +506,277 @@
   </si>
   <si>
     <t>계약여부</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선순위</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부항목</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>버전명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발도구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>매물 등록</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>매물 검색</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 인증</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임 확인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미 사용하고 있는 닉네임인지 확인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디로 실제 존재하는 이메일인지 확인을 위한 이메일 인증</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 확인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미 등록된 이메일인지 확인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>공인중개사 번호 인증</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 유효성 검사</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 ~ 20 글자 및 특수문자 1개 이상 포함</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>매물 주소 입력</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유효성 검사</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 위치 기반 검색</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색어로 검색</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>매물 상세보기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>매물 사진 업로드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>공인중개사 번호 형식에 맞는 번호인지 확인(xxxxx-xxxx-xxxxx)
+미입력시 일반 사용자로 가입</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 입력한 검색어가 주소에 포함된 
+매물들을 출력</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 동의 후 위치 정보를 받아서 해당 
+위치 정보와 가까운 매물들을 출력</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제 존재하는 주소인지 지도 API를 이용하여 입력</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 업로드하는 파일의 확장명을 이미지 파일로만 제한하여 검사 후 서버에 업로드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 검사 수행 후 입력 정보를 서버에 등록</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 결과 페이지로 출력</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 결과 출력되는 매물들을 페이지 단위로 출력</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>매물 상세화면 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 결과 표시되는 매물들마다 각각의 영역 선택시 상세화면으로 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세정보 출력</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>매물의 주소, 등록한 사람, 매물 사진, 태그 출력</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>근처 편의시설 표시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 매물에서 일정 범위 내 편의시설을 지도에 표시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 및 비밀번호 확인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB에 저장된 아이디, 비밀번호와 일치여부 확인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록한 매물 확인/수정/삭제</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성한 리뷰 확인/수정/삭제</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 로그인한 유저가 등록한 매물 확인, 정보 수정 및 매물 삭제</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 작성된 리뷰에 댓글 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 저장한 댓글 내용을 저장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성한 리뷰를 저장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>보증금 , 월세 입력 확인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성한 댓글 확인/삭제</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 로그인한 유저가 작성한 리뷰 확인, 수정 및 삭제</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 로그인한 유저가 작성한 댓글 확인 및 삭제</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>근처 동네 평가 보기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>동네 리뷰 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>동네 주소 입력</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>동네 평가 보기 버튼을 누르면 해당 매물이 속한 동네에 대한 리뷰 리스트 출력</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 매물을 내 찜 목록에 추가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>찜하기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>찜 매물 확인/삭제</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 로그인한 유저가 찜한 매물 확인 및 삭제</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성한 리뷰 저장</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -569,7 +840,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -582,8 +853,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -929,6 +1206,206 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -936,151 +1413,241 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1379,8 +1946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1391,24 +1958,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="20" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1416,7 +1983,7 @@
       <c r="A3" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C3" t="s">
@@ -1424,7 +1991,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C4" t="s">
@@ -1432,7 +1999,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C5" t="s">
@@ -1440,45 +2007,45 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="22" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="23" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C10" t="s">
@@ -1486,12 +2053,12 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="21" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C12" t="s">
@@ -1499,7 +2066,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="21" t="s">
         <v>122</v>
       </c>
       <c r="C13" t="s">
@@ -1507,13 +2074,13 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="22" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1521,29 +2088,29 @@
       <c r="A15" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="23" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="22" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="21" t="s">
         <v>43</v>
       </c>
       <c r="C17" t="s">
@@ -1551,7 +2118,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C18" t="s">
@@ -1559,7 +2126,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="21" t="s">
         <v>45</v>
       </c>
       <c r="C19" t="s">
@@ -1567,21 +2134,21 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="21" t="s">
         <v>51</v>
       </c>
       <c r="C21" t="s">
@@ -1589,21 +2156,21 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="21" t="s">
         <v>52</v>
       </c>
       <c r="C23" t="s">
@@ -1611,7 +2178,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C24" t="s">
@@ -1619,7 +2186,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="21" t="s">
         <v>56</v>
       </c>
       <c r="C25" t="s">
@@ -1627,7 +2194,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="21" t="s">
         <v>18</v>
       </c>
       <c r="C26" t="s">
@@ -1635,7 +2202,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C27" t="s">
@@ -1643,7 +2210,7 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="21" t="s">
         <v>59</v>
       </c>
       <c r="C28" t="s">
@@ -1651,13 +2218,13 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="22" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1665,7 +2232,7 @@
       <c r="A30" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="21" t="s">
         <v>52</v>
       </c>
       <c r="C30" t="s">
@@ -1673,7 +2240,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="21" t="s">
         <v>53</v>
       </c>
       <c r="C31" t="s">
@@ -1681,7 +2248,7 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="21" t="s">
         <v>18</v>
       </c>
       <c r="C32" t="s">
@@ -1689,7 +2256,7 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C33" t="s">
@@ -1697,7 +2264,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="21" t="s">
         <v>61</v>
       </c>
       <c r="C34" t="s">
@@ -1705,13 +2272,13 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="37" t="s">
+      <c r="C35" s="22" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1719,10 +2286,10 @@
       <c r="A36" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="23" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1736,7 +2303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -1749,1033 +2316,1086 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="3"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-      <c r="I4" s="4" t="s">
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
+      <c r="I4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="5" t="s">
+      <c r="J4" s="39"/>
+      <c r="K4" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="7"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="42"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="I5" s="8" t="s">
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="42"/>
+      <c r="I5" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="5" t="s">
+      <c r="J5" s="44"/>
+      <c r="K5" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="7"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="42"/>
     </row>
     <row r="6" spans="1:15" ht="24.75" thickBot="1">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="I6" s="10" t="s">
+      <c r="G6" s="36"/>
+      <c r="I6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="11"/>
+      <c r="O6" s="36"/>
     </row>
     <row r="7" spans="1:15" ht="17.25" thickTop="1">
-      <c r="A7" s="12">
+      <c r="A7" s="4">
         <v>1</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
-      <c r="I7" s="12">
+      <c r="F7" s="37"/>
+      <c r="G7" s="38"/>
+      <c r="I7" s="4">
         <v>1</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="L7" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="N7" s="15"/>
-      <c r="O7" s="16"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="38"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="17">
+      <c r="A8" s="7">
         <f>SUM(A7,1)</f>
         <v>2</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20" t="s">
+      <c r="E8" s="9"/>
+      <c r="F8" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="I8" s="25">
+      <c r="G8" s="33"/>
+      <c r="I8" s="12">
         <f t="shared" ref="I8" si="0">SUM(I7,1)</f>
         <v>2</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="27" t="s">
+      <c r="K8" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="L8" s="27" t="s">
+      <c r="L8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="27"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="29"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="30"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="17">
+      <c r="A9" s="7">
         <f t="shared" ref="A9:A10" si="1">SUM(A8,1)</f>
         <v>3</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="33"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="17">
+      <c r="A10" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="G10" s="21"/>
+      <c r="G10" s="33"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="39"/>
+      <c r="C12" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
-      <c r="I12" s="4" t="s">
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="42"/>
+      <c r="I12" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="5" t="s">
+      <c r="J12" s="39"/>
+      <c r="K12" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="7"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="42"/>
     </row>
     <row r="13" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="44"/>
+      <c r="C13" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
-      <c r="I13" s="8" t="s">
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="42"/>
+      <c r="I13" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="5" t="s">
+      <c r="J13" s="44"/>
+      <c r="K13" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="7"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="42"/>
     </row>
     <row r="14" spans="1:15" ht="24.75" thickBot="1">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="I14" s="10" t="s">
+      <c r="G14" s="36"/>
+      <c r="I14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="10" t="s">
+      <c r="M14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N14" s="11" t="s">
+      <c r="N14" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="O14" s="11"/>
+      <c r="O14" s="36"/>
     </row>
     <row r="15" spans="1:15" ht="17.25" thickTop="1">
-      <c r="A15" s="12">
+      <c r="A15" s="4">
         <v>1</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="I15" s="12">
+      <c r="G15" s="38"/>
+      <c r="I15" s="4">
         <v>1</v>
       </c>
-      <c r="J15" s="13" t="s">
+      <c r="J15" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="K15" s="19" t="s">
+      <c r="K15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="19" t="s">
+      <c r="L15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="M15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N15" s="15" t="s">
+      <c r="N15" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="O15" s="16"/>
+      <c r="O15" s="38"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="12">
+      <c r="A16" s="4">
         <v>2</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="40"/>
-      <c r="I16" s="12">
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+      <c r="I16" s="4">
         <v>2</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="J16" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K16" s="19" t="s">
+      <c r="K16" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="19" t="s">
+      <c r="L16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M16" s="14" t="s">
+      <c r="M16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N16" s="39"/>
-      <c r="O16" s="40"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="28"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="12">
+      <c r="A17" s="4">
         <v>3</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="40"/>
-      <c r="I17" s="12">
+      <c r="E17" s="6"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
+      <c r="I17" s="4">
         <v>3</v>
       </c>
-      <c r="J17" s="13" t="s">
+      <c r="J17" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="K17" s="19" t="s">
+      <c r="K17" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L17" s="19" t="s">
+      <c r="L17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M17" s="14" t="s">
+      <c r="M17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N17" s="39"/>
-      <c r="O17" s="40"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="28"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="12">
+      <c r="A18" s="4">
         <v>4</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="39" t="s">
+      <c r="E18" s="6"/>
+      <c r="F18" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="40"/>
-      <c r="I18" s="12">
+      <c r="G18" s="28"/>
+      <c r="I18" s="4">
         <v>4</v>
       </c>
-      <c r="J18" s="13" t="s">
+      <c r="J18" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="K18" s="19" t="s">
+      <c r="K18" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="L18" s="19" t="s">
+      <c r="L18" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="14"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="40"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="28"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="12">
+      <c r="A19" s="4">
         <v>5</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="39" t="s">
+      <c r="E19" s="6"/>
+      <c r="F19" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="40"/>
-      <c r="I19" s="12">
+      <c r="G19" s="28"/>
+      <c r="I19" s="4">
         <v>5</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="J19" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="K19" s="19" t="s">
+      <c r="K19" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="L19" s="19" t="s">
+      <c r="L19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M19" s="14"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="40"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="28"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="12">
+      <c r="A20" s="4">
         <v>6</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21"/>
-      <c r="I20" s="17">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33"/>
+      <c r="I20" s="7">
         <v>6</v>
       </c>
-      <c r="J20" s="18" t="s">
+      <c r="J20" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="K20" s="19" t="s">
+      <c r="K20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="20" t="s">
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="O20" s="21"/>
+      <c r="O20" s="33"/>
     </row>
     <row r="21" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A21" s="12">
+      <c r="A21" s="4">
         <v>7</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20" t="s">
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="21"/>
-      <c r="I21" s="25">
+      <c r="G21" s="33"/>
+      <c r="I21" s="12">
         <v>7</v>
       </c>
-      <c r="J21" s="26" t="s">
+      <c r="J21" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="K21" s="27" t="s">
+      <c r="K21" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="28" t="s">
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="O21" s="29"/>
+      <c r="O21" s="30"/>
     </row>
     <row r="22" spans="1:15" ht="32.25" customHeight="1">
-      <c r="A22" s="25">
+      <c r="A22" s="12">
         <v>8</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="47" t="s">
+      <c r="E22" s="14"/>
+      <c r="F22" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="G22" s="48"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
+      <c r="G22" s="35"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5" t="s">
+      <c r="B24" s="39"/>
+      <c r="C24" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="7"/>
-      <c r="I24" s="4" t="s">
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="42"/>
+      <c r="I24" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="J24" s="4"/>
-      <c r="K24" s="5" t="s">
+      <c r="J24" s="39"/>
+      <c r="K24" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="7"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="42"/>
     </row>
     <row r="25" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="5" t="s">
+      <c r="B25" s="44"/>
+      <c r="C25" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="7"/>
-      <c r="I25" s="8" t="s">
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="42"/>
+      <c r="I25" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="5" t="s">
+      <c r="J25" s="44"/>
+      <c r="K25" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="7"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="42"/>
     </row>
     <row r="26" spans="1:15" ht="24.75" thickBot="1">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="11"/>
-      <c r="I26" s="10" t="s">
+      <c r="G26" s="36"/>
+      <c r="I26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="K26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L26" s="10" t="s">
+      <c r="L26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M26" s="10" t="s">
+      <c r="M26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N26" s="11" t="s">
+      <c r="N26" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="O26" s="11"/>
+      <c r="O26" s="36"/>
     </row>
     <row r="27" spans="1:15" ht="17.25" thickTop="1">
-      <c r="A27" s="12">
+      <c r="A27" s="4">
         <v>1</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="16"/>
-      <c r="I27" s="12">
+      <c r="F27" s="37"/>
+      <c r="G27" s="38"/>
+      <c r="I27" s="4">
         <v>1</v>
       </c>
-      <c r="J27" s="13" t="s">
+      <c r="J27" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="K27" s="19" t="s">
+      <c r="K27" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L27" s="19" t="s">
+      <c r="L27" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M27" s="14" t="s">
+      <c r="M27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N27" s="15" t="s">
+      <c r="N27" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="O27" s="16"/>
+      <c r="O27" s="38"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="25">
+      <c r="A28" s="12">
         <v>2</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="29"/>
-      <c r="I28" s="12">
+      <c r="E28" s="14"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
+      <c r="I28" s="4">
         <v>2</v>
       </c>
-      <c r="J28" s="13" t="s">
+      <c r="J28" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K28" s="19" t="s">
+      <c r="K28" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="L28" s="19" t="s">
+      <c r="L28" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M28" s="14" t="s">
+      <c r="M28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N28" s="39"/>
-      <c r="O28" s="40"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="28"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="I29" s="12">
+      <c r="I29" s="4">
         <v>3</v>
       </c>
-      <c r="J29" s="13" t="s">
+      <c r="J29" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="K29" s="19" t="s">
+      <c r="K29" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="19" t="s">
+      <c r="L29" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M29" s="14" t="s">
+      <c r="M29" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N29" s="39"/>
-      <c r="O29" s="40"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="28"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5" t="s">
+      <c r="B30" s="39"/>
+      <c r="C30" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="7"/>
-      <c r="I30" s="12">
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="42"/>
+      <c r="I30" s="4">
         <v>4</v>
       </c>
-      <c r="J30" s="13" t="s">
+      <c r="J30" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="K30" s="19" t="s">
+      <c r="K30" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="L30" s="19" t="s">
+      <c r="L30" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M30" s="14"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="40"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="28"/>
     </row>
     <row r="31" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="5" t="s">
+      <c r="B31" s="44"/>
+      <c r="C31" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="7"/>
-      <c r="I31" s="12">
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="42"/>
+      <c r="I31" s="4">
         <v>5</v>
       </c>
-      <c r="J31" s="18" t="s">
+      <c r="J31" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="K31" s="19" t="s">
+      <c r="K31" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="20" t="s">
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="O31" s="21"/>
+      <c r="O31" s="33"/>
     </row>
     <row r="32" spans="1:15" ht="24.75" thickBot="1">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="G32" s="11"/>
-      <c r="I32" s="25">
+      <c r="G32" s="36"/>
+      <c r="I32" s="12">
         <v>6</v>
       </c>
-      <c r="J32" s="26" t="s">
+      <c r="J32" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="K32" s="27" t="s">
+      <c r="K32" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="28" t="s">
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="O32" s="29"/>
+      <c r="O32" s="30"/>
     </row>
     <row r="33" spans="1:15" ht="17.25" thickTop="1">
-      <c r="A33" s="12">
+      <c r="A33" s="4">
         <v>1</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="15"/>
-      <c r="G33" s="16"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="45"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="38"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="12">
+      <c r="A34" s="4">
         <v>2</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="39" t="s">
+      <c r="D34" s="9"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="G34" s="40"/>
-      <c r="I34" s="4" t="s">
+      <c r="G34" s="28"/>
+      <c r="I34" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="J34" s="4"/>
-      <c r="K34" s="5" t="s">
+      <c r="J34" s="39"/>
+      <c r="K34" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="7"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="42"/>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="17">
+      <c r="A35" s="7">
         <v>3</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="39" t="s">
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="G35" s="40"/>
-      <c r="I35" s="8" t="s">
+      <c r="G35" s="28"/>
+      <c r="I35" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="5" t="s">
+      <c r="J35" s="44"/>
+      <c r="K35" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="7"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="42"/>
     </row>
     <row r="36" spans="1:15" ht="24.75" thickBot="1">
-      <c r="A36" s="25">
+      <c r="A36" s="12">
         <v>4</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="41" t="s">
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="G36" s="42"/>
-      <c r="I36" s="10" t="s">
+      <c r="G36" s="46"/>
+      <c r="I36" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J36" s="10" t="s">
+      <c r="J36" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K36" s="10" t="s">
+      <c r="K36" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L36" s="10" t="s">
+      <c r="L36" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M36" s="10" t="s">
+      <c r="M36" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N36" s="11" t="s">
+      <c r="N36" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="O36" s="11"/>
+      <c r="O36" s="36"/>
     </row>
     <row r="37" spans="1:15" ht="17.25" thickTop="1">
-      <c r="I37" s="12">
+      <c r="I37" s="4">
         <v>1</v>
       </c>
-      <c r="J37" s="13" t="s">
+      <c r="J37" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K37" s="19" t="s">
+      <c r="K37" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="L37" s="19" t="s">
+      <c r="L37" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M37" s="14" t="s">
+      <c r="M37" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N37" s="15"/>
-      <c r="O37" s="16"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="38"/>
     </row>
     <row r="38" spans="1:15">
-      <c r="I38" s="25">
+      <c r="I38" s="12">
         <v>2</v>
       </c>
-      <c r="J38" s="26" t="s">
+      <c r="J38" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="K38" s="27" t="s">
+      <c r="K38" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="L38" s="27" t="s">
+      <c r="L38" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M38" s="27" t="s">
+      <c r="M38" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="N38" s="28"/>
-      <c r="O38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:O35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:O25"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
     <mergeCell ref="N29:O29"/>
     <mergeCell ref="N38:O38"/>
     <mergeCell ref="F18:G18"/>
@@ -2792,64 +3412,11 @@
     <mergeCell ref="K34:O34"/>
     <mergeCell ref="N20:O20"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:O24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:O25"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:O35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N28:O28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2858,12 +3425,510 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9" style="53"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
+    <col min="4" max="4" width="38.75" style="51" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="71" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="33">
+      <c r="A2" s="60">
+        <v>2</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" s="72" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="60">
+        <v>1</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" s="72" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="60">
+        <v>1</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="49.5">
+      <c r="A5" s="60">
+        <v>1</v>
+      </c>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" s="72" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="52" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A6" s="64">
+        <v>1</v>
+      </c>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" s="73" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="33.75" thickTop="1">
+      <c r="A7" s="61">
+        <v>2</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="F7" s="74" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="60">
+        <v>1</v>
+      </c>
+      <c r="B8" s="50"/>
+      <c r="C8" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="75" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="33">
+      <c r="A9" s="60">
+        <v>1</v>
+      </c>
+      <c r="B9" s="50"/>
+      <c r="C9" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="F9" s="72" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="52" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A10" s="64">
+        <v>1</v>
+      </c>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="66" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="33.75" thickTop="1">
+      <c r="A11" s="61">
+        <v>2</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="F11" s="74" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="33">
+      <c r="A12" s="60">
+        <v>1</v>
+      </c>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="F12" s="75" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="52" customFormat="1" ht="33.75" thickBot="1">
+      <c r="A13" s="64">
+        <v>1</v>
+      </c>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="F13" s="73" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="33.75" thickTop="1">
+      <c r="A14" s="61">
+        <v>1</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="63" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="76" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="33">
+      <c r="A15" s="60">
+        <v>1</v>
+      </c>
+      <c r="B15" s="50"/>
+      <c r="C15" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="F15" s="72" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="49" customFormat="1" ht="33">
+      <c r="A16" s="60">
+        <v>2</v>
+      </c>
+      <c r="B16" s="50"/>
+      <c r="C16" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="72" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="49" customFormat="1">
+      <c r="A17" s="60">
+        <v>1</v>
+      </c>
+      <c r="B17" s="50"/>
+      <c r="C17" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="D17" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="F17" s="75" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="52" customFormat="1" ht="33.75" thickBot="1">
+      <c r="A18" s="64">
+        <v>2</v>
+      </c>
+      <c r="B18" s="65"/>
+      <c r="C18" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" s="66" t="s">
+        <v>183</v>
+      </c>
+      <c r="E18" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="F18" s="73" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="54" customFormat="1" ht="34.5" thickTop="1" thickBot="1">
+      <c r="A19" s="68">
+        <v>1</v>
+      </c>
+      <c r="B19" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="E19" s="69" t="s">
+        <v>188</v>
+      </c>
+      <c r="F19" s="77" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="33.75" thickTop="1">
+      <c r="A20" s="61">
+        <v>1</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="F20" s="76" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="33">
+      <c r="A21" s="60">
+        <v>1</v>
+      </c>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="D21" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="F21" s="72" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="60">
+        <v>1</v>
+      </c>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="D22" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="F22" s="72" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="52" customFormat="1" ht="33.75" thickBot="1">
+      <c r="A23" s="64">
+        <v>1</v>
+      </c>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" s="66" t="s">
+        <v>179</v>
+      </c>
+      <c r="E23" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23" s="73" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="33.75" thickTop="1">
+      <c r="A24" s="61">
+        <v>2</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C24" s="62" t="s">
+        <v>182</v>
+      </c>
+      <c r="D24" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" s="74" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="52" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A25" s="64">
+        <v>1</v>
+      </c>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="D25" s="66" t="s">
+        <v>175</v>
+      </c>
+      <c r="E25" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="F25" s="78" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="54" customFormat="1" ht="18" thickTop="1" thickBot="1">
+      <c r="A26" s="68">
+        <v>1</v>
+      </c>
+      <c r="B26" s="69" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" s="69" t="s">
+        <v>173</v>
+      </c>
+      <c r="D26" s="70" t="s">
+        <v>174</v>
+      </c>
+      <c r="E26" s="69" t="s">
+        <v>188</v>
+      </c>
+      <c r="F26" s="77" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="17.25" thickTop="1"/>
+  </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Web_final/presentation/req.xlsx
+++ b/Web_final/presentation/req.xlsx
@@ -840,7 +840,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -859,6 +859,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="41">
     <border>
@@ -1413,7 +1419,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1493,6 +1499,126 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1508,10 +1634,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1520,133 +1646,40 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2316,22 +2349,22 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1"/>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:15">
@@ -2344,52 +2377,52 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="40" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42"/>
-      <c r="I4" s="39" t="s">
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="57"/>
+      <c r="I4" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="39"/>
-      <c r="K4" s="40" t="s">
+      <c r="J4" s="54"/>
+      <c r="K4" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="42"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="57"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="40" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42"/>
-      <c r="I5" s="43" t="s">
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="57"/>
+      <c r="I5" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="44"/>
-      <c r="K5" s="40" t="s">
+      <c r="J5" s="60"/>
+      <c r="K5" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="42"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="57"/>
     </row>
     <row r="6" spans="1:15" ht="24.75" thickBot="1">
       <c r="A6" s="3" t="s">
@@ -2407,10 +2440,10 @@
       <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="36"/>
+      <c r="G6" s="61"/>
       <c r="I6" s="3" t="s">
         <v>2</v>
       </c>
@@ -2426,10 +2459,10 @@
       <c r="M6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="36" t="s">
+      <c r="N6" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="36"/>
+      <c r="O6" s="61"/>
     </row>
     <row r="7" spans="1:15" ht="17.25" thickTop="1">
       <c r="A7" s="4">
@@ -2447,8 +2480,8 @@
       <c r="E7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="38"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="63"/>
       <c r="I7" s="4">
         <v>1</v>
       </c>
@@ -2464,8 +2497,8 @@
       <c r="M7" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="N7" s="37"/>
-      <c r="O7" s="38"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="63"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="7">
@@ -2482,10 +2515,10 @@
         <v>11</v>
       </c>
       <c r="E8" s="9"/>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="G8" s="33"/>
+      <c r="G8" s="65"/>
       <c r="I8" s="12">
         <f t="shared" ref="I8" si="0">SUM(I7,1)</f>
         <v>2</v>
@@ -2500,8 +2533,8 @@
         <v>11</v>
       </c>
       <c r="M8" s="14"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="30"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="70"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="7">
@@ -2518,15 +2551,15 @@
         <v>11</v>
       </c>
       <c r="E9" s="9"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
       <c r="I9" s="24"/>
       <c r="J9" s="25"/>
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="7">
@@ -2541,10 +2574,10 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="G10" s="33"/>
+      <c r="G10" s="65"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="10"/>
@@ -2552,56 +2585,56 @@
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="40" t="s">
+      <c r="B12" s="54"/>
+      <c r="C12" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="42"/>
-      <c r="I12" s="39" t="s">
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="57"/>
+      <c r="I12" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="39"/>
-      <c r="K12" s="40" t="s">
+      <c r="J12" s="54"/>
+      <c r="K12" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="42"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="57"/>
     </row>
     <row r="13" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="40" t="s">
+      <c r="B13" s="60"/>
+      <c r="C13" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42"/>
-      <c r="I13" s="43" t="s">
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="57"/>
+      <c r="I13" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="J13" s="44"/>
-      <c r="K13" s="40" t="s">
+      <c r="J13" s="60"/>
+      <c r="K13" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="42"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="57"/>
     </row>
     <row r="14" spans="1:15" ht="24.75" thickBot="1">
       <c r="A14" s="3" t="s">
@@ -2619,10 +2652,10 @@
       <c r="E14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="36"/>
+      <c r="G14" s="61"/>
       <c r="I14" s="3" t="s">
         <v>2</v>
       </c>
@@ -2638,10 +2671,10 @@
       <c r="M14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N14" s="36" t="s">
+      <c r="N14" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="O14" s="36"/>
+      <c r="O14" s="61"/>
     </row>
     <row r="15" spans="1:15" ht="17.25" thickTop="1">
       <c r="A15" s="4">
@@ -2659,10 +2692,10 @@
       <c r="E15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="G15" s="38"/>
+      <c r="G15" s="63"/>
       <c r="I15" s="4">
         <v>1</v>
       </c>
@@ -2678,10 +2711,10 @@
       <c r="M15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N15" s="37" t="s">
+      <c r="N15" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="O15" s="38"/>
+      <c r="O15" s="63"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="4">
@@ -2699,8 +2732,8 @@
       <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="68"/>
       <c r="I16" s="4">
         <v>2</v>
       </c>
@@ -2716,8 +2749,8 @@
       <c r="M16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N16" s="27"/>
-      <c r="O16" s="28"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="68"/>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="4">
@@ -2733,8 +2766,8 @@
         <v>95</v>
       </c>
       <c r="E17" s="6"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="28"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="68"/>
       <c r="I17" s="4">
         <v>3</v>
       </c>
@@ -2750,8 +2783,8 @@
       <c r="M17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N17" s="27"/>
-      <c r="O17" s="28"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="68"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="4">
@@ -2767,10 +2800,10 @@
         <v>11</v>
       </c>
       <c r="E18" s="6"/>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="28"/>
+      <c r="G18" s="68"/>
       <c r="I18" s="4">
         <v>4</v>
       </c>
@@ -2784,8 +2817,8 @@
         <v>11</v>
       </c>
       <c r="M18" s="6"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="28"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="68"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="4">
@@ -2801,10 +2834,10 @@
         <v>11</v>
       </c>
       <c r="E19" s="6"/>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="28"/>
+      <c r="G19" s="68"/>
       <c r="I19" s="4">
         <v>5</v>
       </c>
@@ -2818,8 +2851,8 @@
         <v>11</v>
       </c>
       <c r="M19" s="6"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="28"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="68"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="4">
@@ -2833,8 +2866,8 @@
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="65"/>
       <c r="I20" s="7">
         <v>6</v>
       </c>
@@ -2846,10 +2879,10 @@
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
-      <c r="N20" s="32" t="s">
+      <c r="N20" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="O20" s="33"/>
+      <c r="O20" s="65"/>
     </row>
     <row r="21" spans="1:15" ht="16.5" customHeight="1">
       <c r="A21" s="4">
@@ -2863,10 +2896,10 @@
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="33"/>
+      <c r="G21" s="65"/>
       <c r="I21" s="12">
         <v>7</v>
       </c>
@@ -2878,10 +2911,10 @@
       </c>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
-      <c r="N21" s="29" t="s">
+      <c r="N21" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="O21" s="30"/>
+      <c r="O21" s="70"/>
     </row>
     <row r="22" spans="1:15" ht="32.25" customHeight="1">
       <c r="A22" s="12">
@@ -2897,10 +2930,10 @@
         <v>11</v>
       </c>
       <c r="E22" s="14"/>
-      <c r="F22" s="34" t="s">
+      <c r="F22" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="G22" s="35"/>
+      <c r="G22" s="75"/>
       <c r="I22" s="24"/>
       <c r="J22" s="25"/>
       <c r="K22" s="24"/>
@@ -2910,52 +2943,52 @@
       <c r="O22" s="26"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="40" t="s">
+      <c r="B24" s="54"/>
+      <c r="C24" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="42"/>
-      <c r="I24" s="39" t="s">
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="57"/>
+      <c r="I24" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="J24" s="39"/>
-      <c r="K24" s="40" t="s">
+      <c r="J24" s="54"/>
+      <c r="K24" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="42"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="57"/>
     </row>
     <row r="25" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="40" t="s">
+      <c r="B25" s="60"/>
+      <c r="C25" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="42"/>
-      <c r="I25" s="43" t="s">
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="57"/>
+      <c r="I25" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="J25" s="44"/>
-      <c r="K25" s="40" t="s">
+      <c r="J25" s="60"/>
+      <c r="K25" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="42"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="57"/>
     </row>
     <row r="26" spans="1:15" ht="24.75" thickBot="1">
       <c r="A26" s="3" t="s">
@@ -2973,10 +3006,10 @@
       <c r="E26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="36" t="s">
+      <c r="F26" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="36"/>
+      <c r="G26" s="61"/>
       <c r="I26" s="3" t="s">
         <v>2</v>
       </c>
@@ -2992,10 +3025,10 @@
       <c r="M26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N26" s="36" t="s">
+      <c r="N26" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="O26" s="36"/>
+      <c r="O26" s="61"/>
     </row>
     <row r="27" spans="1:15" ht="17.25" thickTop="1">
       <c r="A27" s="4">
@@ -3013,8 +3046,8 @@
       <c r="E27" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="37"/>
-      <c r="G27" s="38"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="63"/>
       <c r="I27" s="4">
         <v>1</v>
       </c>
@@ -3030,10 +3063,10 @@
       <c r="M27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N27" s="37" t="s">
+      <c r="N27" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="O27" s="38"/>
+      <c r="O27" s="63"/>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="12">
@@ -3049,8 +3082,8 @@
         <v>11</v>
       </c>
       <c r="E28" s="14"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="30"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="70"/>
       <c r="I28" s="4">
         <v>2</v>
       </c>
@@ -3066,8 +3099,8 @@
       <c r="M28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N28" s="27"/>
-      <c r="O28" s="28"/>
+      <c r="N28" s="67"/>
+      <c r="O28" s="68"/>
     </row>
     <row r="29" spans="1:15">
       <c r="I29" s="4">
@@ -3085,21 +3118,21 @@
       <c r="M29" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N29" s="27"/>
-      <c r="O29" s="28"/>
+      <c r="N29" s="67"/>
+      <c r="O29" s="68"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="40" t="s">
+      <c r="B30" s="54"/>
+      <c r="C30" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="42"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="57"/>
       <c r="I30" s="4">
         <v>4</v>
       </c>
@@ -3113,21 +3146,21 @@
         <v>11</v>
       </c>
       <c r="M30" s="6"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="28"/>
+      <c r="N30" s="67"/>
+      <c r="O30" s="68"/>
     </row>
     <row r="31" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="40" t="s">
+      <c r="B31" s="60"/>
+      <c r="C31" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="42"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="57"/>
       <c r="I31" s="4">
         <v>5</v>
       </c>
@@ -3139,10 +3172,10 @@
       </c>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
-      <c r="N31" s="32" t="s">
+      <c r="N31" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="O31" s="33"/>
+      <c r="O31" s="65"/>
     </row>
     <row r="32" spans="1:15" ht="24.75" thickBot="1">
       <c r="A32" s="3" t="s">
@@ -3160,10 +3193,10 @@
       <c r="E32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F32" s="36" t="s">
+      <c r="F32" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="G32" s="36"/>
+      <c r="G32" s="61"/>
       <c r="I32" s="12">
         <v>6</v>
       </c>
@@ -3175,10 +3208,10 @@
       </c>
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
-      <c r="N32" s="29" t="s">
+      <c r="N32" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="O32" s="30"/>
+      <c r="O32" s="70"/>
     </row>
     <row r="33" spans="1:15" ht="17.25" thickTop="1">
       <c r="A33" s="4">
@@ -3196,15 +3229,15 @@
       <c r="E33" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="37"/>
-      <c r="G33" s="38"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="63"/>
       <c r="I33" s="24"/>
       <c r="J33" s="25"/>
       <c r="K33" s="24"/>
       <c r="L33" s="24"/>
       <c r="M33" s="24"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
+      <c r="N33" s="71"/>
+      <c r="O33" s="71"/>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="4">
@@ -3218,21 +3251,21 @@
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="27" t="s">
+      <c r="F34" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="G34" s="28"/>
-      <c r="I34" s="39" t="s">
+      <c r="G34" s="68"/>
+      <c r="I34" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="J34" s="39"/>
-      <c r="K34" s="40" t="s">
+      <c r="J34" s="54"/>
+      <c r="K34" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="42"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="57"/>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="7">
@@ -3246,21 +3279,21 @@
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="27" t="s">
+      <c r="F35" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="G35" s="28"/>
-      <c r="I35" s="43" t="s">
+      <c r="G35" s="68"/>
+      <c r="I35" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="J35" s="44"/>
-      <c r="K35" s="40" t="s">
+      <c r="J35" s="60"/>
+      <c r="K35" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="42"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="57"/>
     </row>
     <row r="36" spans="1:15" ht="24.75" thickBot="1">
       <c r="A36" s="12">
@@ -3274,10 +3307,10 @@
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
-      <c r="F36" s="45" t="s">
+      <c r="F36" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="G36" s="46"/>
+      <c r="G36" s="73"/>
       <c r="I36" s="3" t="s">
         <v>2</v>
       </c>
@@ -3293,10 +3326,10 @@
       <c r="M36" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N36" s="36" t="s">
+      <c r="N36" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="O36" s="36"/>
+      <c r="O36" s="61"/>
     </row>
     <row r="37" spans="1:15" ht="17.25" thickTop="1">
       <c r="I37" s="4">
@@ -3314,8 +3347,8 @@
       <c r="M37" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N37" s="37"/>
-      <c r="O37" s="38"/>
+      <c r="N37" s="62"/>
+      <c r="O37" s="63"/>
     </row>
     <row r="38" spans="1:15">
       <c r="I38" s="12">
@@ -3333,52 +3366,27 @@
       <c r="M38" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="N38" s="29"/>
-      <c r="O38" s="30"/>
+      <c r="N38" s="69"/>
+      <c r="O38" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:O35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:O34"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N18:O18"/>
     <mergeCell ref="F27:G27"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="I5:J5"/>
@@ -3395,28 +3403,53 @@
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="K13:O13"/>
     <mergeCell ref="N14:O14"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:O35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N9:O9"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:O34"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
     <mergeCell ref="N19:O19"/>
     <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3427,376 +3460,376 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="53"/>
+    <col min="1" max="1" width="9" style="31"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="26.5" customWidth="1"/>
-    <col min="4" max="4" width="38.75" style="51" customWidth="1"/>
+    <col min="4" max="4" width="38.75" style="29" customWidth="1"/>
     <col min="5" max="5" width="10.625" customWidth="1"/>
     <col min="6" max="6" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="47" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="33">
-      <c r="A2" s="60">
+      <c r="A2" s="37">
         <v>2</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="48" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="60">
+      <c r="A3" s="37">
         <v>1</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="48" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="60">
+      <c r="A4" s="37">
         <v>1</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="48" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="49.5">
-      <c r="A5" s="60">
+      <c r="A5" s="37">
         <v>1</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50" t="s">
+      <c r="B5" s="28"/>
+      <c r="C5" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="48" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="52" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A6" s="64">
+    <row r="6" spans="1:6" s="30" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A6" s="41">
         <v>1</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="E6" s="65" t="s">
+      <c r="E6" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="F6" s="73" t="s">
+      <c r="F6" s="49" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="33.75" thickTop="1">
-      <c r="A7" s="61">
+      <c r="A7" s="76">
         <v>2</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="77" t="s">
         <v>146</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="78" t="s">
         <v>155</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="F7" s="74" t="s">
+      <c r="F7" s="79" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="60">
+      <c r="A8" s="80">
         <v>1</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="59" t="s">
+      <c r="B8" s="81"/>
+      <c r="C8" s="81" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="81" t="s">
         <v>188</v>
       </c>
-      <c r="F8" s="75" t="s">
+      <c r="F8" s="83" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="33">
-      <c r="A9" s="60">
+      <c r="A9" s="80">
         <v>1</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="59" t="s">
+      <c r="B9" s="81"/>
+      <c r="C9" s="81" t="s">
         <v>151</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="82" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="81" t="s">
         <v>188</v>
       </c>
-      <c r="F9" s="72" t="s">
+      <c r="F9" s="83" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="52" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A10" s="64">
+    <row r="10" spans="1:6" s="30" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A10" s="84">
         <v>1</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65" t="s">
+      <c r="B10" s="85"/>
+      <c r="C10" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="86" t="s">
         <v>157</v>
       </c>
-      <c r="E10" s="65" t="s">
+      <c r="E10" s="85" t="s">
         <v>188</v>
       </c>
-      <c r="F10" s="73" t="s">
+      <c r="F10" s="87" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="33.75" thickTop="1">
-      <c r="A11" s="61">
+      <c r="A11" s="76">
         <v>2</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="77" t="s">
         <v>148</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="78" t="s">
         <v>154</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="F11" s="74" t="s">
+      <c r="F11" s="79" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="33">
-      <c r="A12" s="60">
+      <c r="A12" s="80">
         <v>1</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50" t="s">
+      <c r="B12" s="81"/>
+      <c r="C12" s="81" t="s">
         <v>149</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="82" t="s">
         <v>153</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="81" t="s">
         <v>188</v>
       </c>
-      <c r="F12" s="75" t="s">
+      <c r="F12" s="83" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="52" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A13" s="64">
+    <row r="13" spans="1:6" s="30" customFormat="1" ht="33.75" thickBot="1">
+      <c r="A13" s="84">
         <v>1</v>
       </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65" t="s">
+      <c r="B13" s="85"/>
+      <c r="C13" s="85" t="s">
         <v>158</v>
       </c>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="86" t="s">
         <v>159</v>
       </c>
-      <c r="E13" s="65" t="s">
+      <c r="E13" s="85" t="s">
         <v>188</v>
       </c>
-      <c r="F13" s="73" t="s">
+      <c r="F13" s="87" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="33.75" thickTop="1">
-      <c r="A14" s="61">
+      <c r="A14" s="76">
         <v>1</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="77" t="s">
         <v>160</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="78" t="s">
         <v>161</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="F14" s="76" t="s">
+      <c r="F14" s="79" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="33">
-      <c r="A15" s="60">
+      <c r="A15" s="80">
         <v>1</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="59" t="s">
+      <c r="B15" s="81"/>
+      <c r="C15" s="81" t="s">
         <v>163</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="82" t="s">
         <v>164</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="E15" s="81" t="s">
         <v>188</v>
       </c>
-      <c r="F15" s="72" t="s">
+      <c r="F15" s="83" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="49" customFormat="1" ht="33">
-      <c r="A16" s="60">
+    <row r="16" spans="1:6" s="27" customFormat="1" ht="33">
+      <c r="A16" s="80">
         <v>2</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="59" t="s">
+      <c r="B16" s="81"/>
+      <c r="C16" s="81" t="s">
         <v>165</v>
       </c>
-      <c r="D16" s="58" t="s">
+      <c r="D16" s="82" t="s">
         <v>166</v>
       </c>
-      <c r="E16" s="50" t="s">
+      <c r="E16" s="81" t="s">
         <v>167</v>
       </c>
-      <c r="F16" s="72" t="s">
+      <c r="F16" s="83" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="49" customFormat="1">
-      <c r="A17" s="60">
+    <row r="17" spans="1:6" s="27" customFormat="1">
+      <c r="A17" s="80">
         <v>1</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="59" t="s">
+      <c r="B17" s="81"/>
+      <c r="C17" s="81" t="s">
         <v>185</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="82" t="s">
         <v>184</v>
       </c>
-      <c r="E17" s="50" t="s">
+      <c r="E17" s="81" t="s">
         <v>188</v>
       </c>
-      <c r="F17" s="75" t="s">
+      <c r="F17" s="83" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="52" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A18" s="64">
+    <row r="18" spans="1:6" s="30" customFormat="1" ht="33.75" thickBot="1">
+      <c r="A18" s="84">
         <v>2</v>
       </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="67" t="s">
+      <c r="B18" s="85"/>
+      <c r="C18" s="85" t="s">
         <v>180</v>
       </c>
-      <c r="D18" s="66" t="s">
+      <c r="D18" s="86" t="s">
         <v>183</v>
       </c>
-      <c r="E18" s="65" t="s">
+      <c r="E18" s="85" t="s">
         <v>167</v>
       </c>
-      <c r="F18" s="73" t="s">
+      <c r="F18" s="87" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="54" customFormat="1" ht="34.5" thickTop="1" thickBot="1">
-      <c r="A19" s="68">
+    <row r="19" spans="1:6" s="32" customFormat="1" ht="34.5" thickTop="1" thickBot="1">
+      <c r="A19" s="44">
         <v>1</v>
       </c>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="D19" s="70" t="s">
+      <c r="D19" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="E19" s="69" t="s">
+      <c r="E19" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="F19" s="77" t="s">
+      <c r="F19" s="52" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="33.75" thickTop="1">
-      <c r="A20" s="61">
+      <c r="A20" s="38">
         <v>1</v>
       </c>
       <c r="B20" s="16" t="s">
@@ -3805,125 +3838,125 @@
       <c r="C20" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="D20" s="63" t="s">
+      <c r="D20" s="40" t="s">
         <v>172</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="F20" s="76" t="s">
+      <c r="F20" s="51" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="33">
-      <c r="A21" s="60">
+      <c r="A21" s="37">
         <v>1</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50" t="s">
+      <c r="B21" s="28"/>
+      <c r="C21" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="D21" s="58" t="s">
+      <c r="D21" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="E21" s="50" t="s">
+      <c r="E21" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="F21" s="72" t="s">
+      <c r="F21" s="48" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="60">
+      <c r="A22" s="37">
         <v>1</v>
       </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50" t="s">
+      <c r="B22" s="28"/>
+      <c r="C22" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="D22" s="58" t="s">
+      <c r="D22" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="E22" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="F22" s="72" t="s">
+      <c r="F22" s="48" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="52" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A23" s="64">
+    <row r="23" spans="1:6" s="30" customFormat="1" ht="33.75" thickBot="1">
+      <c r="A23" s="41">
         <v>1</v>
       </c>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65" t="s">
+      <c r="B23" s="42"/>
+      <c r="C23" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="D23" s="66" t="s">
+      <c r="D23" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="E23" s="65" t="s">
+      <c r="E23" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="F23" s="73" t="s">
+      <c r="F23" s="49" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="33.75" thickTop="1">
-      <c r="A24" s="61">
+      <c r="A24" s="38">
         <v>2</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="D24" s="63" t="s">
+      <c r="D24" s="40" t="s">
         <v>155</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="F24" s="74" t="s">
+      <c r="F24" s="50" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="52" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A25" s="64">
+    <row r="25" spans="1:6" s="30" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A25" s="41">
         <v>1</v>
       </c>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65" t="s">
+      <c r="B25" s="42"/>
+      <c r="C25" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="D25" s="66" t="s">
+      <c r="D25" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="E25" s="65" t="s">
+      <c r="E25" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="F25" s="78" t="s">
+      <c r="F25" s="53" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="54" customFormat="1" ht="18" thickTop="1" thickBot="1">
-      <c r="A26" s="68">
+    <row r="26" spans="1:6" s="32" customFormat="1" ht="18" thickTop="1" thickBot="1">
+      <c r="A26" s="44">
         <v>1</v>
       </c>
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="C26" s="69" t="s">
+      <c r="C26" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="D26" s="70" t="s">
+      <c r="D26" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="E26" s="69" t="s">
+      <c r="E26" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="F26" s="77" t="s">
+      <c r="F26" s="52" t="s">
         <v>139</v>
       </c>
     </row>

--- a/Web_final/presentation/req.xlsx
+++ b/Web_final/presentation/req.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sts3\Final_src\finalProject\Web_final\presentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18315" windowHeight="11670" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18320" windowHeight="11670" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="req" sheetId="2" r:id="rId1"/>
     <sheet name="spec" sheetId="1" r:id="rId2"/>
     <sheet name="요구사항 분석" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="199">
   <si>
     <t>테이블정의서</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -777,14 +782,50 @@
   </si>
   <si>
     <t>작성한 리뷰 저장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글좋아요</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>likes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>누른사람 아이디(이메일)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글좋아요</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>replyNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1419,7 +1460,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1580,6 +1621,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1592,94 +1708,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1689,6 +1739,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1735,7 +1793,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1767,9 +1825,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1801,6 +1860,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1976,21 +2036,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="24.75" customWidth="1"/>
     <col min="3" max="3" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>14</v>
       </c>
@@ -2001,7 +2061,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="18" t="s">
         <v>19</v>
       </c>
@@ -2012,7 +2072,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -2023,7 +2083,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B4" s="21" t="s">
         <v>25</v>
       </c>
@@ -2031,7 +2091,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="21" t="s">
         <v>28</v>
       </c>
@@ -2039,7 +2099,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="22" t="s">
         <v>20</v>
       </c>
@@ -2050,7 +2110,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="23" t="s">
         <v>69</v>
       </c>
@@ -2061,7 +2121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="21" t="s">
         <v>32</v>
       </c>
@@ -2069,7 +2129,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" s="21" t="s">
         <v>33</v>
       </c>
@@ -2077,7 +2137,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" s="21" t="s">
         <v>34</v>
       </c>
@@ -2085,12 +2145,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" s="21" t="s">
         <v>17</v>
       </c>
@@ -2098,7 +2158,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" s="21" t="s">
         <v>122</v>
       </c>
@@ -2106,7 +2166,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="22" t="s">
         <v>36</v>
       </c>
@@ -2117,7 +2177,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -2128,7 +2188,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="22" t="s">
         <v>42</v>
       </c>
@@ -2139,7 +2199,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="23" t="s">
         <v>70</v>
       </c>
@@ -2150,7 +2210,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B18" s="21" t="s">
         <v>44</v>
       </c>
@@ -2158,7 +2218,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B19" s="21" t="s">
         <v>45</v>
       </c>
@@ -2166,7 +2226,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="22" t="s">
         <v>49</v>
       </c>
@@ -2177,7 +2237,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="23" t="s">
         <v>71</v>
       </c>
@@ -2188,7 +2248,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="22" t="s">
         <v>21</v>
       </c>
@@ -2199,7 +2259,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="23" t="s">
         <v>72</v>
       </c>
@@ -2210,7 +2270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B24" s="21" t="s">
         <v>55</v>
       </c>
@@ -2218,7 +2278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B25" s="21" t="s">
         <v>56</v>
       </c>
@@ -2226,7 +2286,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B26" s="21" t="s">
         <v>18</v>
       </c>
@@ -2234,7 +2294,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B27" s="21" t="s">
         <v>57</v>
       </c>
@@ -2242,7 +2302,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B28" s="21" t="s">
         <v>59</v>
       </c>
@@ -2250,7 +2310,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="22" t="s">
         <v>22</v>
       </c>
@@ -2261,7 +2321,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>73</v>
       </c>
@@ -2272,7 +2332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B31" s="21" t="s">
         <v>53</v>
       </c>
@@ -2280,7 +2340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B32" s="21" t="s">
         <v>18</v>
       </c>
@@ -2288,7 +2348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B33" s="21" t="s">
         <v>57</v>
       </c>
@@ -2296,7 +2356,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B34" s="21" t="s">
         <v>61</v>
       </c>
@@ -2304,7 +2364,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="22" t="s">
         <v>23</v>
       </c>
@@ -2315,15 +2375,37 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="90" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>190</v>
+      </c>
+      <c r="B37" s="89" t="s">
+        <v>192</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>191</v>
+      </c>
+      <c r="B38" s="89" t="s">
+        <v>194</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2333,41 +2415,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41:G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="6" max="7" width="13.25" customWidth="1"/>
-    <col min="11" max="11" width="18.875" customWidth="1"/>
+    <col min="11" max="11" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2376,55 +2458,55 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="54" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A4" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="55" t="s">
+      <c r="B4" s="79"/>
+      <c r="C4" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="57"/>
-      <c r="I4" s="54" t="s">
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="82"/>
+      <c r="I4" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55" t="s">
+      <c r="J4" s="79"/>
+      <c r="K4" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="57"/>
-    </row>
-    <row r="5" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A5" s="59" t="s">
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="82"/>
+    </row>
+    <row r="5" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="55" t="s">
+      <c r="B5" s="84"/>
+      <c r="C5" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="57"/>
-      <c r="I5" s="59" t="s">
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="82"/>
+      <c r="I5" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="55" t="s">
+      <c r="J5" s="84"/>
+      <c r="K5" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="57"/>
-    </row>
-    <row r="6" spans="1:15" ht="24.75" thickBot="1">
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="82"/>
+    </row>
+    <row r="6" spans="1:15" ht="26.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -2440,10 +2522,10 @@
       <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="61" t="s">
+      <c r="F6" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="61"/>
+      <c r="G6" s="76"/>
       <c r="I6" s="3" t="s">
         <v>2</v>
       </c>
@@ -2459,12 +2541,12 @@
       <c r="M6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="61" t="s">
+      <c r="N6" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="61"/>
-    </row>
-    <row r="7" spans="1:15" ht="17.25" thickTop="1">
+      <c r="O6" s="76"/>
+    </row>
+    <row r="7" spans="1:15" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -2480,8 +2562,8 @@
       <c r="E7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="62"/>
-      <c r="G7" s="63"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="78"/>
       <c r="I7" s="4">
         <v>1</v>
       </c>
@@ -2497,10 +2579,10 @@
       <c r="M7" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="N7" s="62"/>
-      <c r="O7" s="63"/>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="N7" s="77"/>
+      <c r="O7" s="78"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="7">
         <f>SUM(A7,1)</f>
         <v>2</v>
@@ -2515,10 +2597,10 @@
         <v>11</v>
       </c>
       <c r="E8" s="9"/>
-      <c r="F8" s="64" t="s">
+      <c r="F8" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="G8" s="65"/>
+      <c r="G8" s="73"/>
       <c r="I8" s="12">
         <f t="shared" ref="I8" si="0">SUM(I7,1)</f>
         <v>2</v>
@@ -2533,10 +2615,10 @@
         <v>11</v>
       </c>
       <c r="M8" s="14"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="70"/>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="N8" s="67"/>
+      <c r="O8" s="68"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="7">
         <f t="shared" ref="A9:A10" si="1">SUM(A8,1)</f>
         <v>3</v>
@@ -2551,8 +2633,8 @@
         <v>11</v>
       </c>
       <c r="E9" s="9"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="73"/>
       <c r="I9" s="24"/>
       <c r="J9" s="25"/>
       <c r="K9" s="24"/>
@@ -2561,7 +2643,7 @@
       <c r="N9" s="71"/>
       <c r="O9" s="71"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -2574,69 +2656,69 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="64" t="s">
+      <c r="F10" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="G10" s="65"/>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="G10" s="73"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="54" t="s">
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A12" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="55" t="s">
+      <c r="B12" s="79"/>
+      <c r="C12" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="57"/>
-      <c r="I12" s="54" t="s">
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="82"/>
+      <c r="I12" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="54"/>
-      <c r="K12" s="55" t="s">
+      <c r="J12" s="79"/>
+      <c r="K12" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="57"/>
-    </row>
-    <row r="13" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A13" s="59" t="s">
+      <c r="L12" s="81"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="82"/>
+    </row>
+    <row r="13" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="55" t="s">
+      <c r="B13" s="84"/>
+      <c r="C13" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="57"/>
-      <c r="I13" s="59" t="s">
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="82"/>
+      <c r="I13" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="J13" s="60"/>
-      <c r="K13" s="55" t="s">
+      <c r="J13" s="84"/>
+      <c r="K13" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="57"/>
-    </row>
-    <row r="14" spans="1:15" ht="24.75" thickBot="1">
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="82"/>
+    </row>
+    <row r="14" spans="1:15" ht="26.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -2652,10 +2734,10 @@
       <c r="E14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="61" t="s">
+      <c r="F14" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="61"/>
+      <c r="G14" s="76"/>
       <c r="I14" s="3" t="s">
         <v>2</v>
       </c>
@@ -2671,12 +2753,12 @@
       <c r="M14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N14" s="61" t="s">
+      <c r="N14" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="O14" s="61"/>
-    </row>
-    <row r="15" spans="1:15" ht="17.25" thickTop="1">
+      <c r="O14" s="76"/>
+    </row>
+    <row r="15" spans="1:15" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -2692,10 +2774,10 @@
       <c r="E15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="62" t="s">
+      <c r="F15" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="G15" s="63"/>
+      <c r="G15" s="78"/>
       <c r="I15" s="4">
         <v>1</v>
       </c>
@@ -2711,12 +2793,12 @@
       <c r="M15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N15" s="62" t="s">
+      <c r="N15" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="O15" s="63"/>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="O15" s="78"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
         <v>2</v>
       </c>
@@ -2732,8 +2814,8 @@
       <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="67"/>
-      <c r="G16" s="68"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="70"/>
       <c r="I16" s="4">
         <v>2</v>
       </c>
@@ -2749,10 +2831,10 @@
       <c r="M16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N16" s="67"/>
-      <c r="O16" s="68"/>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="N16" s="69"/>
+      <c r="O16" s="70"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
         <v>3</v>
       </c>
@@ -2766,8 +2848,8 @@
         <v>95</v>
       </c>
       <c r="E17" s="6"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="68"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="70"/>
       <c r="I17" s="4">
         <v>3</v>
       </c>
@@ -2783,10 +2865,10 @@
       <c r="M17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N17" s="67"/>
-      <c r="O17" s="68"/>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="N17" s="69"/>
+      <c r="O17" s="70"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
         <v>4</v>
       </c>
@@ -2800,10 +2882,10 @@
         <v>11</v>
       </c>
       <c r="E18" s="6"/>
-      <c r="F18" s="67" t="s">
+      <c r="F18" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="68"/>
+      <c r="G18" s="70"/>
       <c r="I18" s="4">
         <v>4</v>
       </c>
@@ -2817,10 +2899,10 @@
         <v>11</v>
       </c>
       <c r="M18" s="6"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="68"/>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="N18" s="69"/>
+      <c r="O18" s="70"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
         <v>5</v>
       </c>
@@ -2834,10 +2916,10 @@
         <v>11</v>
       </c>
       <c r="E19" s="6"/>
-      <c r="F19" s="67" t="s">
+      <c r="F19" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="68"/>
+      <c r="G19" s="70"/>
       <c r="I19" s="4">
         <v>5</v>
       </c>
@@ -2851,10 +2933,10 @@
         <v>11</v>
       </c>
       <c r="M19" s="6"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="68"/>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="N19" s="69"/>
+      <c r="O19" s="70"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
         <v>6</v>
       </c>
@@ -2866,8 +2948,8 @@
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="65"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="73"/>
       <c r="I20" s="7">
         <v>6</v>
       </c>
@@ -2879,12 +2961,12 @@
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
-      <c r="N20" s="64" t="s">
+      <c r="N20" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="O20" s="65"/>
-    </row>
-    <row r="21" spans="1:15" ht="16.5" customHeight="1">
+      <c r="O20" s="73"/>
+    </row>
+    <row r="21" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="4">
         <v>7</v>
       </c>
@@ -2896,10 +2978,10 @@
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="64" t="s">
+      <c r="F21" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="65"/>
+      <c r="G21" s="73"/>
       <c r="I21" s="12">
         <v>7</v>
       </c>
@@ -2911,12 +2993,12 @@
       </c>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
-      <c r="N21" s="69" t="s">
+      <c r="N21" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="O21" s="70"/>
-    </row>
-    <row r="22" spans="1:15" ht="32.25" customHeight="1">
+      <c r="O21" s="68"/>
+    </row>
+    <row r="22" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="12">
         <v>8</v>
       </c>
@@ -2942,55 +3024,55 @@
       <c r="N22" s="26"/>
       <c r="O22" s="26"/>
     </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="54" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A24" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="55" t="s">
+      <c r="B24" s="79"/>
+      <c r="C24" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="57"/>
-      <c r="I24" s="54" t="s">
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="82"/>
+      <c r="I24" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="J24" s="54"/>
-      <c r="K24" s="55" t="s">
+      <c r="J24" s="79"/>
+      <c r="K24" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="57"/>
-    </row>
-    <row r="25" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A25" s="59" t="s">
+      <c r="L24" s="81"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="82"/>
+    </row>
+    <row r="25" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="55" t="s">
+      <c r="B25" s="84"/>
+      <c r="C25" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="57"/>
-      <c r="I25" s="59" t="s">
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="82"/>
+      <c r="I25" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="J25" s="60"/>
-      <c r="K25" s="55" t="s">
+      <c r="J25" s="84"/>
+      <c r="K25" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="57"/>
-    </row>
-    <row r="26" spans="1:15" ht="24.75" thickBot="1">
+      <c r="L25" s="81"/>
+      <c r="M25" s="81"/>
+      <c r="N25" s="81"/>
+      <c r="O25" s="82"/>
+    </row>
+    <row r="26" spans="1:15" ht="26.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="3" t="s">
         <v>2</v>
       </c>
@@ -3006,10 +3088,10 @@
       <c r="E26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="61" t="s">
+      <c r="F26" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="61"/>
+      <c r="G26" s="76"/>
       <c r="I26" s="3" t="s">
         <v>2</v>
       </c>
@@ -3025,12 +3107,12 @@
       <c r="M26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N26" s="61" t="s">
+      <c r="N26" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="O26" s="61"/>
-    </row>
-    <row r="27" spans="1:15" ht="17.25" thickTop="1">
+      <c r="O26" s="76"/>
+    </row>
+    <row r="27" spans="1:15" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
         <v>1</v>
       </c>
@@ -3046,8 +3128,8 @@
       <c r="E27" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="62"/>
-      <c r="G27" s="63"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="78"/>
       <c r="I27" s="4">
         <v>1</v>
       </c>
@@ -3063,12 +3145,12 @@
       <c r="M27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N27" s="62" t="s">
+      <c r="N27" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="O27" s="63"/>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="O27" s="78"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" s="12">
         <v>2</v>
       </c>
@@ -3082,8 +3164,8 @@
         <v>11</v>
       </c>
       <c r="E28" s="14"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="70"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="68"/>
       <c r="I28" s="4">
         <v>2</v>
       </c>
@@ -3099,10 +3181,10 @@
       <c r="M28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N28" s="67"/>
-      <c r="O28" s="68"/>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="N28" s="69"/>
+      <c r="O28" s="70"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="I29" s="4">
         <v>3</v>
       </c>
@@ -3118,21 +3200,21 @@
       <c r="M29" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N29" s="67"/>
-      <c r="O29" s="68"/>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="54" t="s">
+      <c r="N29" s="69"/>
+      <c r="O29" s="70"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A30" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="55" t="s">
+      <c r="B30" s="79"/>
+      <c r="C30" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="57"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="82"/>
       <c r="I30" s="4">
         <v>4</v>
       </c>
@@ -3146,21 +3228,21 @@
         <v>11</v>
       </c>
       <c r="M30" s="6"/>
-      <c r="N30" s="67"/>
-      <c r="O30" s="68"/>
-    </row>
-    <row r="31" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A31" s="59" t="s">
+      <c r="N30" s="69"/>
+      <c r="O30" s="70"/>
+    </row>
+    <row r="31" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="60"/>
-      <c r="C31" s="55" t="s">
+      <c r="B31" s="84"/>
+      <c r="C31" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="57"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="82"/>
       <c r="I31" s="4">
         <v>5</v>
       </c>
@@ -3172,12 +3254,12 @@
       </c>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
-      <c r="N31" s="64" t="s">
+      <c r="N31" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="O31" s="65"/>
-    </row>
-    <row r="32" spans="1:15" ht="24.75" thickBot="1">
+      <c r="O31" s="73"/>
+    </row>
+    <row r="32" spans="1:15" ht="26.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
@@ -3193,10 +3275,10 @@
       <c r="E32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F32" s="61" t="s">
+      <c r="F32" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="G32" s="61"/>
+      <c r="G32" s="76"/>
       <c r="I32" s="12">
         <v>6</v>
       </c>
@@ -3208,12 +3290,12 @@
       </c>
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
-      <c r="N32" s="69" t="s">
+      <c r="N32" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="O32" s="70"/>
-    </row>
-    <row r="33" spans="1:15" ht="17.25" thickTop="1">
+      <c r="O32" s="68"/>
+    </row>
+    <row r="33" spans="1:15" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A33" s="4">
         <v>1</v>
       </c>
@@ -3229,8 +3311,8 @@
       <c r="E33" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="62"/>
-      <c r="G33" s="63"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="78"/>
       <c r="I33" s="24"/>
       <c r="J33" s="25"/>
       <c r="K33" s="24"/>
@@ -3239,7 +3321,7 @@
       <c r="N33" s="71"/>
       <c r="O33" s="71"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A34" s="4">
         <v>2</v>
       </c>
@@ -3251,23 +3333,23 @@
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="67" t="s">
+      <c r="F34" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="G34" s="68"/>
-      <c r="I34" s="54" t="s">
+      <c r="G34" s="70"/>
+      <c r="I34" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="J34" s="54"/>
-      <c r="K34" s="55" t="s">
+      <c r="J34" s="79"/>
+      <c r="K34" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56"/>
-      <c r="O34" s="57"/>
-    </row>
-    <row r="35" spans="1:15">
+      <c r="L34" s="81"/>
+      <c r="M34" s="81"/>
+      <c r="N34" s="81"/>
+      <c r="O34" s="82"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A35" s="7">
         <v>3</v>
       </c>
@@ -3279,23 +3361,23 @@
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="67" t="s">
+      <c r="F35" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="G35" s="68"/>
-      <c r="I35" s="59" t="s">
+      <c r="G35" s="70"/>
+      <c r="I35" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="J35" s="60"/>
-      <c r="K35" s="55" t="s">
+      <c r="J35" s="84"/>
+      <c r="K35" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="56"/>
-      <c r="O35" s="57"/>
-    </row>
-    <row r="36" spans="1:15" ht="24.75" thickBot="1">
+      <c r="L35" s="81"/>
+      <c r="M35" s="81"/>
+      <c r="N35" s="81"/>
+      <c r="O35" s="82"/>
+    </row>
+    <row r="36" spans="1:15" ht="26.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="12">
         <v>4</v>
       </c>
@@ -3307,10 +3389,10 @@
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
-      <c r="F36" s="72" t="s">
+      <c r="F36" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="G36" s="73"/>
+      <c r="G36" s="86"/>
       <c r="I36" s="3" t="s">
         <v>2</v>
       </c>
@@ -3326,12 +3408,12 @@
       <c r="M36" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N36" s="61" t="s">
+      <c r="N36" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="O36" s="61"/>
-    </row>
-    <row r="37" spans="1:15" ht="17.25" thickTop="1">
+      <c r="O36" s="76"/>
+    </row>
+    <row r="37" spans="1:15" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="I37" s="4">
         <v>1</v>
       </c>
@@ -3347,10 +3429,21 @@
       <c r="M37" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N37" s="62"/>
-      <c r="O37" s="63"/>
-    </row>
-    <row r="38" spans="1:15">
+      <c r="N37" s="77"/>
+      <c r="O37" s="78"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A38" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="79"/>
+      <c r="C38" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="82"/>
       <c r="I38" s="12">
         <v>2</v>
       </c>
@@ -3366,11 +3459,153 @@
       <c r="M38" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="N38" s="69"/>
-      <c r="O38" s="70"/>
+      <c r="N38" s="67"/>
+      <c r="O38" s="68"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A39" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" s="84"/>
+      <c r="C39" s="80" t="s">
+        <v>196</v>
+      </c>
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="82"/>
+    </row>
+    <row r="40" spans="1:15" ht="26.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="76"/>
+    </row>
+    <row r="41" spans="1:15" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="4">
+        <v>1</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="77"/>
+      <c r="G41" s="78"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A42" s="4">
+        <v>2</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="77"/>
+      <c r="G42" s="78"/>
     </row>
   </sheetData>
-  <mergeCells count="79">
+  <mergeCells count="86">
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:O35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:O25"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="N14:O14"/>
     <mergeCell ref="N38:O38"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="F19:G19"/>
@@ -3387,94 +3622,32 @@
     <mergeCell ref="N20:O20"/>
     <mergeCell ref="N21:O21"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:O24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:O25"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:O35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" style="31"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="26.5" customWidth="1"/>
     <col min="4" max="4" width="38.75" style="29" customWidth="1"/>
-    <col min="5" max="5" width="10.625" customWidth="1"/>
-    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="10.58203125" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="33" t="s">
         <v>123</v>
       </c>
@@ -3494,7 +3667,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="33">
+    <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.45">
       <c r="A2" s="37">
         <v>2</v>
       </c>
@@ -3514,7 +3687,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="37">
         <v>1</v>
       </c>
@@ -3532,7 +3705,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="37">
         <v>1</v>
       </c>
@@ -3550,7 +3723,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="49.5">
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.45">
       <c r="A5" s="37">
         <v>1</v>
       </c>
@@ -3568,7 +3741,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="30" customFormat="1" ht="17.25" thickBot="1">
+    <row r="6" spans="1:6" s="30" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="41">
         <v>1</v>
       </c>
@@ -3586,229 +3759,229 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="33.75" thickTop="1">
-      <c r="A7" s="76">
+    <row r="7" spans="1:6" ht="34.5" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="55">
         <v>2</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="D7" s="78" t="s">
+      <c r="D7" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="E7" s="77" t="s">
+      <c r="E7" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="F7" s="79" t="s">
+      <c r="F7" s="58" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="80">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="59">
         <v>1</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81" t="s">
+      <c r="B8" s="60"/>
+      <c r="C8" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="82" t="s">
+      <c r="D8" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="E8" s="81" t="s">
+      <c r="E8" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="F8" s="83" t="s">
+      <c r="F8" s="62" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="33">
-      <c r="A9" s="80">
+    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+      <c r="A9" s="59">
         <v>1</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81" t="s">
+      <c r="B9" s="60"/>
+      <c r="C9" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="D9" s="82" t="s">
+      <c r="D9" s="61" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="81" t="s">
+      <c r="E9" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="F9" s="83" t="s">
+      <c r="F9" s="62" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="30" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A10" s="84">
+    <row r="10" spans="1:6" s="30" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="63">
         <v>1</v>
       </c>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85" t="s">
+      <c r="B10" s="64"/>
+      <c r="C10" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="D10" s="86" t="s">
+      <c r="D10" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="E10" s="85" t="s">
+      <c r="E10" s="64" t="s">
         <v>188</v>
       </c>
-      <c r="F10" s="87" t="s">
+      <c r="F10" s="66" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="33.75" thickTop="1">
-      <c r="A11" s="76">
+    <row r="11" spans="1:6" ht="34.5" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="55">
         <v>2</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="D11" s="78" t="s">
+      <c r="D11" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="E11" s="77" t="s">
+      <c r="E11" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="F11" s="79" t="s">
+      <c r="F11" s="58" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="33">
-      <c r="A12" s="80">
+    <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+      <c r="A12" s="59">
         <v>1</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81" t="s">
+      <c r="B12" s="60"/>
+      <c r="C12" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="D12" s="82" t="s">
+      <c r="D12" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="E12" s="81" t="s">
+      <c r="E12" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="F12" s="83" t="s">
+      <c r="F12" s="62" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="30" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A13" s="84">
+    <row r="13" spans="1:6" s="30" customFormat="1" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="63">
         <v>1</v>
       </c>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85" t="s">
+      <c r="B13" s="64"/>
+      <c r="C13" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="D13" s="86" t="s">
+      <c r="D13" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="E13" s="85" t="s">
+      <c r="E13" s="64" t="s">
         <v>188</v>
       </c>
-      <c r="F13" s="87" t="s">
+      <c r="F13" s="66" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="33.75" thickTop="1">
-      <c r="A14" s="76">
+    <row r="14" spans="1:6" ht="34.5" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="55">
         <v>1</v>
       </c>
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="77" t="s">
+      <c r="C14" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="D14" s="78" t="s">
+      <c r="D14" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="E14" s="77" t="s">
+      <c r="E14" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="F14" s="79" t="s">
+      <c r="F14" s="58" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="33">
-      <c r="A15" s="80">
+    <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+      <c r="A15" s="59">
         <v>1</v>
       </c>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81" t="s">
+      <c r="B15" s="60"/>
+      <c r="C15" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="D15" s="82" t="s">
+      <c r="D15" s="61" t="s">
         <v>164</v>
       </c>
-      <c r="E15" s="81" t="s">
+      <c r="E15" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="F15" s="83" t="s">
+      <c r="F15" s="62" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="27" customFormat="1" ht="33">
-      <c r="A16" s="80">
+    <row r="16" spans="1:6" s="27" customFormat="1" ht="34" x14ac:dyDescent="0.45">
+      <c r="A16" s="59">
         <v>2</v>
       </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81" t="s">
+      <c r="B16" s="60"/>
+      <c r="C16" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="D16" s="82" t="s">
+      <c r="D16" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="E16" s="81" t="s">
+      <c r="E16" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="F16" s="83" t="s">
+      <c r="F16" s="62" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="27" customFormat="1">
-      <c r="A17" s="80">
+    <row r="17" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="59">
         <v>1</v>
       </c>
-      <c r="B17" s="81"/>
-      <c r="C17" s="81" t="s">
+      <c r="B17" s="60"/>
+      <c r="C17" s="60" t="s">
         <v>185</v>
       </c>
-      <c r="D17" s="82" t="s">
+      <c r="D17" s="61" t="s">
         <v>184</v>
       </c>
-      <c r="E17" s="81" t="s">
+      <c r="E17" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="F17" s="83" t="s">
+      <c r="F17" s="62" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="30" customFormat="1" ht="33.75" thickBot="1">
-      <c r="A18" s="84">
+    <row r="18" spans="1:6" s="30" customFormat="1" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="63">
         <v>2</v>
       </c>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85" t="s">
+      <c r="B18" s="64"/>
+      <c r="C18" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="D18" s="86" t="s">
+      <c r="D18" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="E18" s="85" t="s">
+      <c r="E18" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="F18" s="87" t="s">
+      <c r="F18" s="66" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="32" customFormat="1" ht="34.5" thickTop="1" thickBot="1">
+    <row r="19" spans="1:6" s="32" customFormat="1" ht="35" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="44">
         <v>1</v>
       </c>
@@ -3828,7 +4001,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="33.75" thickTop="1">
+    <row r="20" spans="1:6" ht="34.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A20" s="38">
         <v>1</v>
       </c>
@@ -3848,7 +4021,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="33">
+    <row r="21" spans="1:6" ht="34" x14ac:dyDescent="0.45">
       <c r="A21" s="37">
         <v>1</v>
       </c>
@@ -3866,7 +4039,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="37">
         <v>1</v>
       </c>
@@ -3884,7 +4057,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="30" customFormat="1" ht="33.75" thickBot="1">
+    <row r="23" spans="1:6" s="30" customFormat="1" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="41">
         <v>1</v>
       </c>
@@ -3902,7 +4075,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="33.75" thickTop="1">
+    <row r="24" spans="1:6" ht="34.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A24" s="38">
         <v>2</v>
       </c>
@@ -3922,7 +4095,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="30" customFormat="1" ht="17.25" thickBot="1">
+    <row r="25" spans="1:6" s="30" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="41">
         <v>1</v>
       </c>
@@ -3940,7 +4113,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="32" customFormat="1" ht="18" thickTop="1" thickBot="1">
+    <row r="26" spans="1:6" s="32" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="44">
         <v>1</v>
       </c>
@@ -3960,7 +4133,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="17.25" thickTop="1"/>
+    <row r="27" spans="1:6" ht="17.5" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Web_final/presentation/req.xlsx
+++ b/Web_final/presentation/req.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sts3\Final_src\finalProject\Web_final\presentation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18320" windowHeight="11670" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18315" windowHeight="11670" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="req" sheetId="2" r:id="rId1"/>
     <sheet name="spec" sheetId="1" r:id="rId2"/>
     <sheet name="요구사항 분석" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="216">
   <si>
     <t>테이블정의서</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -442,10 +437,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>varchar2(45)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>boardNo</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -819,13 +810,85 @@
   <si>
     <t>number</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 형식</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(8)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bcode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>check in ('계약가능', '계약완료') default '계약가능'</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(15)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>coordX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>coordY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentiment</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(15)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(20)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Table Name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -907,7 +970,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1453,6 +1516,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1460,7 +1595,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1660,77 +1795,119 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1793,7 +1970,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1825,10 +2002,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1860,7 +2036,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2036,21 +2211,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="24.75" customWidth="1"/>
     <col min="3" max="3" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3">
       <c r="A1" s="15" t="s">
         <v>14</v>
       </c>
@@ -2061,7 +2236,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3">
       <c r="A2" s="18" t="s">
         <v>19</v>
       </c>
@@ -2072,7 +2247,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -2083,7 +2258,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3">
       <c r="B4" s="21" t="s">
         <v>25</v>
       </c>
@@ -2091,7 +2266,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3">
       <c r="B5" s="21" t="s">
         <v>28</v>
       </c>
@@ -2099,7 +2274,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3">
       <c r="A6" s="22" t="s">
         <v>20</v>
       </c>
@@ -2110,7 +2285,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3">
       <c r="A7" s="23" t="s">
         <v>69</v>
       </c>
@@ -2121,7 +2296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3">
       <c r="B8" s="21" t="s">
         <v>32</v>
       </c>
@@ -2129,7 +2304,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3">
       <c r="B9" s="21" t="s">
         <v>33</v>
       </c>
@@ -2137,7 +2312,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3">
       <c r="B10" s="21" t="s">
         <v>34</v>
       </c>
@@ -2145,12 +2320,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3">
       <c r="B11" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3">
       <c r="B12" s="21" t="s">
         <v>17</v>
       </c>
@@ -2158,15 +2333,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3">
       <c r="B13" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="22" t="s">
         <v>36</v>
       </c>
@@ -2177,7 +2352,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -2188,7 +2363,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3">
       <c r="A16" s="22" t="s">
         <v>42</v>
       </c>
@@ -2199,7 +2374,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3">
       <c r="A17" s="23" t="s">
         <v>70</v>
       </c>
@@ -2210,7 +2385,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3">
       <c r="B18" s="21" t="s">
         <v>44</v>
       </c>
@@ -2218,7 +2393,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3">
       <c r="B19" s="21" t="s">
         <v>45</v>
       </c>
@@ -2226,7 +2401,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3">
       <c r="A20" s="22" t="s">
         <v>49</v>
       </c>
@@ -2237,7 +2412,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3">
       <c r="A21" s="23" t="s">
         <v>71</v>
       </c>
@@ -2248,7 +2423,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3">
       <c r="A22" s="22" t="s">
         <v>21</v>
       </c>
@@ -2259,7 +2434,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3">
       <c r="A23" s="23" t="s">
         <v>72</v>
       </c>
@@ -2270,7 +2445,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3">
       <c r="B24" s="21" t="s">
         <v>55</v>
       </c>
@@ -2278,7 +2453,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3">
       <c r="B25" s="21" t="s">
         <v>56</v>
       </c>
@@ -2286,7 +2461,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3">
       <c r="B26" s="21" t="s">
         <v>18</v>
       </c>
@@ -2294,7 +2469,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3">
       <c r="B27" s="21" t="s">
         <v>57</v>
       </c>
@@ -2302,7 +2477,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3">
       <c r="B28" s="21" t="s">
         <v>59</v>
       </c>
@@ -2310,7 +2485,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3">
       <c r="A29" s="22" t="s">
         <v>22</v>
       </c>
@@ -2321,7 +2496,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>73</v>
       </c>
@@ -2332,7 +2507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3">
       <c r="B31" s="21" t="s">
         <v>53</v>
       </c>
@@ -2340,7 +2515,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3">
       <c r="B32" s="21" t="s">
         <v>18</v>
       </c>
@@ -2348,7 +2523,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3">
       <c r="B33" s="21" t="s">
         <v>57</v>
       </c>
@@ -2356,7 +2531,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3">
       <c r="B34" s="21" t="s">
         <v>61</v>
       </c>
@@ -2364,7 +2539,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3">
       <c r="A35" s="22" t="s">
         <v>23</v>
       </c>
@@ -2375,37 +2550,37 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3">
       <c r="A36" s="30" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="90" t="s">
+      <c r="C36" s="71" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
+        <v>189</v>
+      </c>
+      <c r="B37" s="70" t="s">
+        <v>191</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
         <v>190</v>
       </c>
-      <c r="B37" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="C37" s="23" t="s">
+      <c r="B38" s="70" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>191</v>
-      </c>
-      <c r="B38" s="89" t="s">
+      <c r="C38" s="23" t="s">
         <v>194</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2415,41 +2590,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41:G41"/>
+    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32:O46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="6" max="7" width="13.25" customWidth="1"/>
-    <col min="11" max="11" width="18.83203125" customWidth="1"/>
+    <col min="11" max="11" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="1"/>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="2"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2458,55 +2633,55 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A4" s="79" t="s">
+    <row r="4" spans="1:15">
+      <c r="A4" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="80" t="s">
+      <c r="B4" s="74"/>
+      <c r="C4" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="82"/>
-      <c r="I4" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="79"/>
-      <c r="K4" s="80" t="s">
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="77"/>
+      <c r="I4" s="74" t="s">
+        <v>215</v>
+      </c>
+      <c r="J4" s="74"/>
+      <c r="K4" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="82"/>
-    </row>
-    <row r="5" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="83" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="80" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="77"/>
+    </row>
+    <row r="5" spans="1:15" ht="16.5" customHeight="1">
+      <c r="A5" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="79"/>
+      <c r="C5" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="82"/>
-      <c r="I5" s="83" t="s">
-        <v>117</v>
-      </c>
-      <c r="J5" s="84"/>
-      <c r="K5" s="80" t="s">
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="77"/>
+      <c r="I5" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" s="79"/>
+      <c r="K5" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="82"/>
-    </row>
-    <row r="6" spans="1:15" ht="26.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="77"/>
+    </row>
+    <row r="6" spans="1:15" ht="24.75" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -2522,10 +2697,10 @@
       <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="76" t="s">
+      <c r="F6" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="76"/>
+      <c r="G6" s="80"/>
       <c r="I6" s="3" t="s">
         <v>2</v>
       </c>
@@ -2541,12 +2716,12 @@
       <c r="M6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="76" t="s">
+      <c r="N6" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="76"/>
-    </row>
-    <row r="7" spans="1:15" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="O6" s="80"/>
+    </row>
+    <row r="7" spans="1:15" ht="17.25" thickTop="1">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -2562,8 +2737,10 @@
       <c r="E7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="77"/>
-      <c r="G7" s="78"/>
+      <c r="F7" s="72" t="s">
+        <v>198</v>
+      </c>
+      <c r="G7" s="73"/>
       <c r="I7" s="4">
         <v>1</v>
       </c>
@@ -2579,10 +2756,10 @@
       <c r="M7" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="N7" s="77"/>
-      <c r="O7" s="78"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N7" s="72"/>
+      <c r="O7" s="73"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="7">
         <f>SUM(A7,1)</f>
         <v>2</v>
@@ -2597,30 +2774,28 @@
         <v>11</v>
       </c>
       <c r="E8" s="9"/>
-      <c r="F8" s="72" t="s">
+      <c r="F8" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="G8" s="73"/>
-      <c r="I8" s="12">
-        <f t="shared" ref="I8" si="0">SUM(I7,1)</f>
+      <c r="G8" s="83"/>
+      <c r="I8" s="4">
         <v>2</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="L8" s="14" t="s">
+      <c r="K8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="14"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="68"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M8" s="6"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="86"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="7">
-        <f t="shared" ref="A9:A10" si="1">SUM(A8,1)</f>
         <v>3</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -2633,19 +2808,26 @@
         <v>11</v>
       </c>
       <c r="E9" s="9"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="73"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="F9" s="82"/>
+      <c r="G9" s="83"/>
+      <c r="I9" s="4">
+        <v>3</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="68"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="7">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -2656,205 +2838,211 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="72" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" s="73"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A12" s="79" t="s">
+      <c r="F10" s="82" t="s">
+        <v>213</v>
+      </c>
+      <c r="G10" s="83"/>
+      <c r="I10" s="4">
+        <v>4</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="M10" s="6"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="68"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="7">
+        <f t="shared" ref="A11" si="0">SUM(A10,1)</f>
+        <v>5</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="83"/>
+      <c r="I11" s="4">
+        <v>5</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="L11" s="9"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="68"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="I12" s="12">
+        <v>6</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="93"/>
+    </row>
+    <row r="13" spans="1:15" ht="16.5" customHeight="1">
+      <c r="A13" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="80" t="s">
+      <c r="B13" s="74"/>
+      <c r="C13" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="82"/>
-      <c r="I12" s="79" t="s">
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="77"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="79"/>
+      <c r="C14" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="77"/>
+      <c r="I14" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="79"/>
-      <c r="K12" s="80" t="s">
+      <c r="J14" s="74"/>
+      <c r="K14" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="L12" s="81"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="82"/>
-    </row>
-    <row r="13" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="83" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" s="84"/>
-      <c r="C13" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="82"/>
-      <c r="I13" s="83" t="s">
-        <v>117</v>
-      </c>
-      <c r="J13" s="84"/>
-      <c r="K13" s="80" t="s">
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="77"/>
+    </row>
+    <row r="15" spans="1:15" ht="24.75" thickBot="1">
+      <c r="A15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="80"/>
+      <c r="I15" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="J15" s="79"/>
+      <c r="K15" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="82"/>
-    </row>
-    <row r="14" spans="1:15" ht="26.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="76"/>
-      <c r="I14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N14" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="O14" s="76"/>
-    </row>
-    <row r="15" spans="1:15" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="4">
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="77"/>
+    </row>
+    <row r="16" spans="1:15" ht="25.5" thickTop="1" thickBot="1">
+      <c r="A16" s="4">
         <v>1</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C16" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="77" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15" s="78"/>
-      <c r="I15" s="4">
-        <v>1</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="N15" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="O15" s="78"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A16" s="4">
-        <v>2</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>93</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="73"/>
+      <c r="I16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="O16" s="80"/>
+    </row>
+    <row r="17" spans="1:15" ht="17.25" thickTop="1">
+      <c r="A17" s="4">
+        <v>2</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="69"/>
-      <c r="G16" s="70"/>
-      <c r="I16" s="4">
-        <v>2</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N16" s="69"/>
-      <c r="O16" s="70"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A17" s="4">
-        <v>3</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="70"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="86"/>
       <c r="I17" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="K17" s="9" t="s">
         <v>8</v>
@@ -2863,51 +3051,53 @@
         <v>11</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N17" s="69"/>
-      <c r="O17" s="70"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+      <c r="N17" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="O17" s="73"/>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="E18" s="6"/>
-      <c r="F18" s="69" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="70"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="86"/>
       <c r="I18" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="6"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="70"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N18" s="85"/>
+      <c r="O18" s="86"/>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>8</v>
@@ -2916,512 +3106,517 @@
         <v>11</v>
       </c>
       <c r="E19" s="6"/>
-      <c r="F19" s="69" t="s">
+      <c r="F19" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="70"/>
+      <c r="G19" s="86"/>
       <c r="I19" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="L19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M19" s="6"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="70"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="M19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N19" s="85"/>
+      <c r="O19" s="86"/>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="4">
+        <v>5</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="86"/>
+      <c r="I20" s="4">
+        <v>4</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="85"/>
+      <c r="O20" s="86"/>
+    </row>
+    <row r="21" spans="1:15" ht="16.5" customHeight="1">
+      <c r="A21" s="4">
         <v>6</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B21" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C21" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="73"/>
-      <c r="I20" s="7">
-        <v>6</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="O20" s="73"/>
-    </row>
-    <row r="21" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="4">
-        <v>7</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>12</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="72" t="s">
+      <c r="F21" s="82"/>
+      <c r="G21" s="83"/>
+      <c r="I21" s="4">
+        <v>5</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" s="6"/>
+      <c r="N21" s="85"/>
+      <c r="O21" s="86"/>
+    </row>
+    <row r="22" spans="1:15" ht="32.25" customHeight="1">
+      <c r="A22" s="94">
+        <v>7</v>
+      </c>
+      <c r="B22" s="95" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="73"/>
-      <c r="I21" s="12">
+      <c r="G22" s="98"/>
+      <c r="I22" s="7">
+        <v>6</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="O22" s="83"/>
+    </row>
+    <row r="23" spans="1:15" ht="26.25" customHeight="1">
+      <c r="A23" s="4">
+        <v>8</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="G23" s="83"/>
+      <c r="I23" s="7">
         <v>7</v>
       </c>
-      <c r="J21" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="K21" s="14" t="s">
+      <c r="J23" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="82" t="s">
+        <v>210</v>
+      </c>
+      <c r="O23" s="83"/>
+    </row>
+    <row r="24" spans="1:15" ht="16.5" customHeight="1">
+      <c r="A24" s="12">
+        <v>9</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="88"/>
+      <c r="I24" s="7">
         <v>8</v>
       </c>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="O21" s="68"/>
-    </row>
-    <row r="22" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="12">
+      <c r="J24" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="M24" s="9"/>
+      <c r="N24" s="82"/>
+      <c r="O24" s="83"/>
+    </row>
+    <row r="25" spans="1:15" ht="16.5" customHeight="1">
+      <c r="A25" s="94"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="104"/>
+      <c r="I25" s="12">
+        <v>9</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="M25" s="14"/>
+      <c r="N25" s="87"/>
+      <c r="O25" s="88"/>
+    </row>
+    <row r="26" spans="1:15" ht="14.25" customHeight="1">
+      <c r="A26" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="74"/>
+      <c r="C26" s="75" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="69"/>
+      <c r="O26" s="69"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="79"/>
+      <c r="C27" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="77"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="69"/>
+    </row>
+    <row r="28" spans="1:15" ht="24.75" thickBot="1">
+      <c r="A28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="80"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="69"/>
+    </row>
+    <row r="29" spans="1:15" ht="16.5" customHeight="1" thickTop="1">
+      <c r="A29" s="4">
+        <v>1</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="D22" s="14" t="s">
+      <c r="D29" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="74" t="s">
-        <v>120</v>
-      </c>
-      <c r="G22" s="75"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A24" s="79" t="s">
+      <c r="E29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="72"/>
+      <c r="G29" s="73"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="69"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="12">
+        <v>2</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="88"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="79"/>
-      <c r="C24" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="82"/>
-      <c r="I24" s="79" t="s">
+      <c r="B32" s="74"/>
+      <c r="C32" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="77"/>
+      <c r="I32" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="J24" s="79"/>
-      <c r="K24" s="80" t="s">
+      <c r="J32" s="74"/>
+      <c r="K32" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="L24" s="81"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="81"/>
-      <c r="O24" s="82"/>
-    </row>
-    <row r="25" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="83" t="s">
-        <v>117</v>
-      </c>
-      <c r="B25" s="84"/>
-      <c r="C25" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="82"/>
-      <c r="I25" s="83" t="s">
-        <v>117</v>
-      </c>
-      <c r="J25" s="84"/>
-      <c r="K25" s="80" t="s">
+      <c r="L32" s="76"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="76"/>
+      <c r="O32" s="77"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="79"/>
+      <c r="C33" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="77"/>
+      <c r="I33" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="J33" s="79"/>
+      <c r="K33" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="L25" s="81"/>
-      <c r="M25" s="81"/>
-      <c r="N25" s="81"/>
-      <c r="O25" s="82"/>
-    </row>
-    <row r="26" spans="1:15" ht="26.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="3" t="s">
+      <c r="L33" s="76"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="76"/>
+      <c r="O33" s="77"/>
+    </row>
+    <row r="34" spans="1:15" ht="24.75" thickBot="1">
+      <c r="A34" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="76" t="s">
+      <c r="F34" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="76"/>
-      <c r="I26" s="3" t="s">
+      <c r="G34" s="80"/>
+      <c r="I34" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J34" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="K34" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="L34" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="M34" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N26" s="76" t="s">
+      <c r="N34" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="O26" s="76"/>
-    </row>
-    <row r="27" spans="1:15" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="4">
+      <c r="O34" s="80"/>
+    </row>
+    <row r="35" spans="1:15" ht="16.5" customHeight="1" thickTop="1">
+      <c r="A35" s="4">
         <v>1</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B35" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C35" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D35" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E35" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="77"/>
-      <c r="G27" s="78"/>
-      <c r="I27" s="4">
+      <c r="F35" s="72"/>
+      <c r="G35" s="73"/>
+      <c r="I35" s="4">
         <v>1</v>
       </c>
-      <c r="J27" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="K27" s="9" t="s">
+      <c r="J35" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K35" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L27" s="9" t="s">
+      <c r="L35" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M27" s="6" t="s">
+      <c r="M35" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N27" s="77" t="s">
-        <v>115</v>
-      </c>
-      <c r="O27" s="78"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A28" s="12">
+      <c r="N35" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="O35" s="73"/>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="4">
         <v>2</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" s="14" t="s">
+      <c r="B36" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" s="86"/>
+      <c r="I36" s="4">
+        <v>2</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L36" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="68"/>
-      <c r="I28" s="4">
-        <v>2</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="L28" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M28" s="6" t="s">
+      <c r="M36" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N28" s="69"/>
-      <c r="O28" s="70"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="I29" s="4">
+      <c r="N36" s="85"/>
+      <c r="O36" s="86"/>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="7">
         <v>3</v>
       </c>
-      <c r="J29" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="K29" s="9" t="s">
+      <c r="B37" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" s="86"/>
+      <c r="I37" s="4">
+        <v>3</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K37" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="L29" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N29" s="69"/>
-      <c r="O29" s="70"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A30" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="79"/>
-      <c r="C30" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="82"/>
-      <c r="I30" s="4">
-        <v>4</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="L30" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M30" s="6"/>
-      <c r="N30" s="69"/>
-      <c r="O30" s="70"/>
-    </row>
-    <row r="31" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="83" t="s">
-        <v>117</v>
-      </c>
-      <c r="B31" s="84"/>
-      <c r="C31" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="81"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="82"/>
-      <c r="I31" s="4">
-        <v>5</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="O31" s="73"/>
-    </row>
-    <row r="32" spans="1:15" ht="26.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="76"/>
-      <c r="I32" s="12">
-        <v>6</v>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="K32" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="O32" s="68"/>
-    </row>
-    <row r="33" spans="1:15" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="4">
-        <v>1</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="77"/>
-      <c r="G33" s="78"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="71"/>
-      <c r="O33" s="71"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A34" s="4">
-        <v>2</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="69" t="s">
-        <v>48</v>
-      </c>
-      <c r="G34" s="70"/>
-      <c r="I34" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="J34" s="79"/>
-      <c r="K34" s="80" t="s">
-        <v>74</v>
-      </c>
-      <c r="L34" s="81"/>
-      <c r="M34" s="81"/>
-      <c r="N34" s="81"/>
-      <c r="O34" s="82"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A35" s="7">
-        <v>3</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="69" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" s="70"/>
-      <c r="I35" s="83" t="s">
-        <v>116</v>
-      </c>
-      <c r="J35" s="84"/>
-      <c r="K35" s="80" t="s">
-        <v>118</v>
-      </c>
-      <c r="L35" s="81"/>
-      <c r="M35" s="81"/>
-      <c r="N35" s="81"/>
-      <c r="O35" s="82"/>
-    </row>
-    <row r="36" spans="1:15" ht="26.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="12">
-        <v>4</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="85" t="s">
-        <v>46</v>
-      </c>
-      <c r="G36" s="86"/>
-      <c r="I36" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N36" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="O36" s="76"/>
-    </row>
-    <row r="37" spans="1:15" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="I37" s="4">
-        <v>1</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="K37" s="9" t="s">
-        <v>93</v>
       </c>
       <c r="L37" s="9" t="s">
         <v>11</v>
@@ -3429,122 +3624,318 @@
       <c r="M37" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N37" s="77"/>
-      <c r="O37" s="78"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A38" s="79" t="s">
+      <c r="N37" s="85"/>
+      <c r="O37" s="86"/>
+    </row>
+    <row r="38" spans="1:15" ht="24">
+      <c r="A38" s="12">
+        <v>4</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="89" t="s">
+        <v>46</v>
+      </c>
+      <c r="G38" s="90"/>
+      <c r="I38" s="4">
+        <v>4</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M38" s="6"/>
+      <c r="N38" s="85"/>
+      <c r="O38" s="86"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="I39" s="4">
+        <v>5</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="O39" s="83"/>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="79"/>
-      <c r="C38" s="80" t="s">
-        <v>114</v>
-      </c>
-      <c r="D38" s="81"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="82"/>
-      <c r="I38" s="12">
+      <c r="B40" s="74"/>
+      <c r="C40" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="77"/>
+      <c r="I40" s="12">
+        <v>6</v>
+      </c>
+      <c r="J40" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="K40" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="O40" s="88"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="78" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" s="79"/>
+      <c r="C41" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="77"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="91"/>
+      <c r="O41" s="91"/>
+    </row>
+    <row r="42" spans="1:15" ht="24.75" thickBot="1">
+      <c r="A42" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="J38" s="13" t="s">
+      <c r="B42" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="80"/>
+      <c r="I42" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="J42" s="74"/>
+      <c r="K42" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="L42" s="76"/>
+      <c r="M42" s="76"/>
+      <c r="N42" s="76"/>
+      <c r="O42" s="77"/>
+    </row>
+    <row r="43" spans="1:15" ht="17.25" thickTop="1">
+      <c r="A43" s="4">
+        <v>1</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="72"/>
+      <c r="G43" s="73"/>
+      <c r="I43" s="78" t="s">
+        <v>115</v>
+      </c>
+      <c r="J43" s="79"/>
+      <c r="K43" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="L43" s="76"/>
+      <c r="M43" s="76"/>
+      <c r="N43" s="76"/>
+      <c r="O43" s="77"/>
+    </row>
+    <row r="44" spans="1:15" ht="24.75" thickBot="1">
+      <c r="A44" s="4">
+        <v>2</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="72"/>
+      <c r="G44" s="73"/>
+      <c r="I44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N44" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="O44" s="80"/>
+    </row>
+    <row r="45" spans="1:15" ht="17.25" thickTop="1">
+      <c r="I45" s="4">
+        <v>1</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N45" s="72"/>
+      <c r="O45" s="73"/>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="I46" s="12">
+        <v>2</v>
+      </c>
+      <c r="J46" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="K38" s="14" t="s">
+      <c r="K46" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="L38" s="14" t="s">
+      <c r="L46" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M38" s="14" t="s">
+      <c r="M46" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="N38" s="67"/>
-      <c r="O38" s="68"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A39" s="83" t="s">
-        <v>116</v>
-      </c>
-      <c r="B39" s="84"/>
-      <c r="C39" s="80" t="s">
-        <v>196</v>
-      </c>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="82"/>
-    </row>
-    <row r="40" spans="1:15" ht="26.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" s="76"/>
-    </row>
-    <row r="41" spans="1:15" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="4">
-        <v>1</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="77"/>
-      <c r="G41" s="78"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A42" s="4">
-        <v>2</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="77"/>
-      <c r="G42" s="78"/>
+      <c r="N46" s="87"/>
+      <c r="O46" s="88"/>
     </row>
   </sheetData>
-  <mergeCells count="86">
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
+  <mergeCells count="91">
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:O42"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:O32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:O33"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
     <mergeCell ref="B1:F2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:G4"/>
@@ -3553,75 +3944,17 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:O35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:O24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:O25"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:O34"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="F42:G42"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3630,510 +3963,510 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="31"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="26.5" customWidth="1"/>
     <col min="4" max="4" width="38.75" style="29" customWidth="1"/>
-    <col min="5" max="5" width="10.58203125" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6">
       <c r="A1" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="C1" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="D1" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="E1" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="F1" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="47" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:6" ht="33">
       <c r="A2" s="37">
         <v>2</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C2" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="37">
         <v>1</v>
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="36" t="s">
-        <v>142</v>
-      </c>
       <c r="E3" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F3" s="48" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="37">
         <v>1</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="E4" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="E4" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="F4" s="48" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:6" ht="49.5">
       <c r="A5" s="37">
         <v>1</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F5" s="48" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="30" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="30" customFormat="1" ht="17.25" thickBot="1">
       <c r="A6" s="41">
         <v>1</v>
       </c>
       <c r="B6" s="42"/>
       <c r="C6" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="43" t="s">
-        <v>145</v>
-      </c>
       <c r="E6" s="42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F6" s="49" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="34.5" thickTop="1" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="33.75" thickTop="1">
       <c r="A7" s="55">
         <v>2</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D7" s="57" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E7" s="56" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F7" s="58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="59">
         <v>1</v>
       </c>
       <c r="B8" s="60"/>
       <c r="C8" s="60" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D8" s="61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F8" s="62" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="33">
       <c r="A9" s="59">
         <v>1</v>
       </c>
       <c r="B9" s="60"/>
       <c r="C9" s="60" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D9" s="61" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F9" s="62" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="30" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="30" customFormat="1" ht="17.25" thickBot="1">
       <c r="A10" s="63">
         <v>1</v>
       </c>
       <c r="B10" s="64"/>
       <c r="C10" s="64" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D10" s="65" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E10" s="64" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F10" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="34.5" thickTop="1" x14ac:dyDescent="0.45">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="33.75" thickTop="1">
       <c r="A11" s="55">
         <v>2</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D11" s="57" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E11" s="56" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F11" s="58" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="33">
       <c r="A12" s="59">
         <v>1</v>
       </c>
       <c r="B12" s="60"/>
       <c r="C12" s="60" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D12" s="61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E12" s="60" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F12" s="62" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="30" customFormat="1" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="30" customFormat="1" ht="33.75" thickBot="1">
       <c r="A13" s="63">
         <v>1</v>
       </c>
       <c r="B13" s="64"/>
       <c r="C13" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="D13" s="65" t="s">
-        <v>159</v>
-      </c>
       <c r="E13" s="64" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F13" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="34.5" thickTop="1" x14ac:dyDescent="0.45">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="33.75" thickTop="1">
       <c r="A14" s="55">
         <v>1</v>
       </c>
       <c r="B14" s="56" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C14" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="E14" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="E14" s="56" t="s">
-        <v>188</v>
-      </c>
-      <c r="F14" s="58" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:6" ht="33">
       <c r="A15" s="59">
         <v>1</v>
       </c>
       <c r="B15" s="60"/>
       <c r="C15" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="61" t="s">
         <v>163</v>
       </c>
-      <c r="D15" s="61" t="s">
-        <v>164</v>
-      </c>
       <c r="E15" s="60" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F15" s="62" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="27" customFormat="1" ht="34" x14ac:dyDescent="0.45">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="27" customFormat="1" ht="33">
       <c r="A16" s="59">
         <v>2</v>
       </c>
       <c r="B16" s="60"/>
       <c r="C16" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="D16" s="61" t="s">
+      <c r="E16" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="E16" s="60" t="s">
-        <v>167</v>
-      </c>
       <c r="F16" s="62" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="27" customFormat="1">
       <c r="A17" s="59">
         <v>1</v>
       </c>
       <c r="B17" s="60"/>
       <c r="C17" s="60" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D17" s="61" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E17" s="60" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F17" s="62" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="30" customFormat="1" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="30" customFormat="1" ht="33.75" thickBot="1">
       <c r="A18" s="63">
         <v>2</v>
       </c>
       <c r="B18" s="64"/>
       <c r="C18" s="64" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D18" s="65" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E18" s="64" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F18" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="32" customFormat="1" ht="35" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="32" customFormat="1" ht="34.5" thickTop="1" thickBot="1">
       <c r="A19" s="44">
         <v>1</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C19" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="D19" s="46" t="s">
-        <v>169</v>
-      </c>
       <c r="E19" s="45" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F19" s="52" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="34.5" thickTop="1" x14ac:dyDescent="0.45">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="33.75" thickTop="1">
       <c r="A20" s="38">
         <v>1</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F20" s="51" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="33">
       <c r="A21" s="37">
         <v>1</v>
       </c>
       <c r="B21" s="28"/>
       <c r="C21" s="28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F21" s="48" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="37">
         <v>1</v>
       </c>
       <c r="B22" s="28"/>
       <c r="C22" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="D22" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="E22" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="E22" s="28" t="s">
-        <v>188</v>
-      </c>
       <c r="F22" s="48" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="30" customFormat="1" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="30" customFormat="1" ht="33.75" thickBot="1">
       <c r="A23" s="41">
         <v>1</v>
       </c>
       <c r="B23" s="42"/>
       <c r="C23" s="42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F23" s="49" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="34.5" thickTop="1" x14ac:dyDescent="0.45">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="33.75" thickTop="1">
       <c r="A24" s="38">
         <v>2</v>
       </c>
       <c r="B24" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C24" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="C24" s="39" t="s">
-        <v>182</v>
-      </c>
       <c r="D24" s="40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F24" s="50" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="30" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="30" customFormat="1" ht="17.25" thickBot="1">
       <c r="A25" s="41">
         <v>1</v>
       </c>
       <c r="B25" s="42"/>
       <c r="C25" s="42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F25" s="53" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="32" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="32" customFormat="1" ht="18" thickTop="1" thickBot="1">
       <c r="A26" s="44">
         <v>1</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C26" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="D26" s="46" t="s">
-        <v>174</v>
-      </c>
       <c r="E26" s="45" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F26" s="52" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="17.5" thickTop="1" x14ac:dyDescent="0.45"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="17.25" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Web_final/presentation/req.xlsx
+++ b/Web_final/presentation/req.xlsx
@@ -1,27 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sts3\Final_src\finalProject\Web_final\presentation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18320" windowHeight="11670" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18315" windowHeight="11670" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="req" sheetId="2" r:id="rId1"/>
     <sheet name="spec" sheetId="1" r:id="rId2"/>
     <sheet name="요구사항 분석" sheetId="3" r:id="rId3"/>
+    <sheet name="개발 환경" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="236">
   <si>
     <t>테이블정의서</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -818,14 +814,172 @@
   </si>
   <si>
     <t>number</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRONT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>버전</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AJAX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring Framework</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyBatis</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>REST API</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BACK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oracle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntelliJ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VS Code</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>STS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>언어/라이브러리
+/SW 명칭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Source 관리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Client에게 보여줄 웹 페이지 내 각종 요소 배치</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> HTML 요소의 스타일 설정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 입력값 유효성 검사, 화면에 지도 표시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> JavaScript를 더 간결하게 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> MVC 패턴, DI 사용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> REST API 사용 및 DAO, VO 구현</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> DB 연동 시 VO와 자동 mapping</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 상황에 맞게 웹 페이지를 동적으로 구현
+ ex) 각 게시물에 대한 HTML 요소 추가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kakao map API 주소변환 기능 호출
+ Naver Clova Sentiment API 호출</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 각종 정보를 저장할 테이블 생성
+ 각 테이블의 CRUD 작업 수행 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Java class 구현
+ MyBatis mapper 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spring framework 및 Maven 기반 
+ 프로젝트 생성 및 각종 설정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 형상 관리(push, pull, merge)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Git merge 필요 시 소스 비교 후 병합
+ SQL query 작성 및 테스트
+ JSP 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>주 사용 목적</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 비동기식 처리
+ ex) 지도에 인근 대형 마트 핀 추가,
+      기존에 첨부된 첨부 파일 삭제</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1460,7 +1614,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1660,77 +1814,83 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1793,7 +1953,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1825,10 +1985,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1860,7 +2019,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2036,21 +2194,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="24.75" customWidth="1"/>
     <col min="3" max="3" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3">
       <c r="A1" s="15" t="s">
         <v>14</v>
       </c>
@@ -2061,7 +2219,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3">
       <c r="A2" s="18" t="s">
         <v>19</v>
       </c>
@@ -2072,7 +2230,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -2083,7 +2241,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3">
       <c r="B4" s="21" t="s">
         <v>25</v>
       </c>
@@ -2091,7 +2249,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3">
       <c r="B5" s="21" t="s">
         <v>28</v>
       </c>
@@ -2099,7 +2257,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3">
       <c r="A6" s="22" t="s">
         <v>20</v>
       </c>
@@ -2110,7 +2268,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3">
       <c r="A7" s="23" t="s">
         <v>69</v>
       </c>
@@ -2121,7 +2279,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3">
       <c r="B8" s="21" t="s">
         <v>32</v>
       </c>
@@ -2129,7 +2287,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3">
       <c r="B9" s="21" t="s">
         <v>33</v>
       </c>
@@ -2137,7 +2295,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3">
       <c r="B10" s="21" t="s">
         <v>34</v>
       </c>
@@ -2145,12 +2303,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3">
       <c r="B11" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3">
       <c r="B12" s="21" t="s">
         <v>17</v>
       </c>
@@ -2158,7 +2316,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3">
       <c r="B13" s="21" t="s">
         <v>122</v>
       </c>
@@ -2166,7 +2324,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3">
       <c r="A14" s="22" t="s">
         <v>36</v>
       </c>
@@ -2177,7 +2335,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -2188,7 +2346,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3">
       <c r="A16" s="22" t="s">
         <v>42</v>
       </c>
@@ -2199,7 +2357,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3">
       <c r="A17" s="23" t="s">
         <v>70</v>
       </c>
@@ -2210,7 +2368,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3">
       <c r="B18" s="21" t="s">
         <v>44</v>
       </c>
@@ -2218,7 +2376,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3">
       <c r="B19" s="21" t="s">
         <v>45</v>
       </c>
@@ -2226,7 +2384,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3">
       <c r="A20" s="22" t="s">
         <v>49</v>
       </c>
@@ -2237,7 +2395,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3">
       <c r="A21" s="23" t="s">
         <v>71</v>
       </c>
@@ -2248,7 +2406,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3">
       <c r="A22" s="22" t="s">
         <v>21</v>
       </c>
@@ -2259,7 +2417,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3">
       <c r="A23" s="23" t="s">
         <v>72</v>
       </c>
@@ -2270,7 +2428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3">
       <c r="B24" s="21" t="s">
         <v>55</v>
       </c>
@@ -2278,7 +2436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3">
       <c r="B25" s="21" t="s">
         <v>56</v>
       </c>
@@ -2286,7 +2444,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3">
       <c r="B26" s="21" t="s">
         <v>18</v>
       </c>
@@ -2294,7 +2452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3">
       <c r="B27" s="21" t="s">
         <v>57</v>
       </c>
@@ -2302,7 +2460,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3">
       <c r="B28" s="21" t="s">
         <v>59</v>
       </c>
@@ -2310,7 +2468,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3">
       <c r="A29" s="22" t="s">
         <v>22</v>
       </c>
@@ -2321,7 +2479,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>73</v>
       </c>
@@ -2332,7 +2490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3">
       <c r="B31" s="21" t="s">
         <v>53</v>
       </c>
@@ -2340,7 +2498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3">
       <c r="B32" s="21" t="s">
         <v>18</v>
       </c>
@@ -2348,7 +2506,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3">
       <c r="B33" s="21" t="s">
         <v>57</v>
       </c>
@@ -2356,7 +2514,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3">
       <c r="B34" s="21" t="s">
         <v>61</v>
       </c>
@@ -2364,7 +2522,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3">
       <c r="A35" s="22" t="s">
         <v>23</v>
       </c>
@@ -2375,33 +2533,33 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3">
       <c r="A36" s="30" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="90" t="s">
+      <c r="C36" s="68" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>190</v>
       </c>
-      <c r="B37" s="89" t="s">
+      <c r="B37" s="67" t="s">
         <v>192</v>
       </c>
       <c r="C37" s="23" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>191</v>
       </c>
-      <c r="B38" s="89" t="s">
+      <c r="B38" s="67" t="s">
         <v>194</v>
       </c>
       <c r="C38" s="23" t="s">
@@ -2415,41 +2573,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F41" sqref="F41:G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="6" max="7" width="13.25" customWidth="1"/>
-    <col min="11" max="11" width="18.83203125" customWidth="1"/>
+    <col min="11" max="11" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="1"/>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="2"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2458,55 +2616,55 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A4" s="79" t="s">
+    <row r="4" spans="1:15">
+      <c r="A4" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="80" t="s">
+      <c r="B4" s="71"/>
+      <c r="C4" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="82"/>
-      <c r="I4" s="79" t="s">
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74"/>
+      <c r="I4" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="79"/>
-      <c r="K4" s="80" t="s">
+      <c r="J4" s="71"/>
+      <c r="K4" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="82"/>
-    </row>
-    <row r="5" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="83" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="74"/>
+    </row>
+    <row r="5" spans="1:15" ht="16.5" customHeight="1">
+      <c r="A5" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="80" t="s">
+      <c r="B5" s="76"/>
+      <c r="C5" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="82"/>
-      <c r="I5" s="83" t="s">
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74"/>
+      <c r="I5" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="84"/>
-      <c r="K5" s="80" t="s">
+      <c r="J5" s="76"/>
+      <c r="K5" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="82"/>
-    </row>
-    <row r="6" spans="1:15" ht="26.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="74"/>
+    </row>
+    <row r="6" spans="1:15" ht="24.75" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -2522,10 +2680,10 @@
       <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="76" t="s">
+      <c r="F6" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="76"/>
+      <c r="G6" s="77"/>
       <c r="I6" s="3" t="s">
         <v>2</v>
       </c>
@@ -2541,12 +2699,12 @@
       <c r="M6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="76" t="s">
+      <c r="N6" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="76"/>
-    </row>
-    <row r="7" spans="1:15" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="O6" s="77"/>
+    </row>
+    <row r="7" spans="1:15" ht="17.25" thickTop="1">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -2562,8 +2720,8 @@
       <c r="E7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="77"/>
-      <c r="G7" s="78"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="70"/>
       <c r="I7" s="4">
         <v>1</v>
       </c>
@@ -2579,10 +2737,10 @@
       <c r="M7" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="N7" s="77"/>
-      <c r="O7" s="78"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N7" s="69"/>
+      <c r="O7" s="70"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="7">
         <f>SUM(A7,1)</f>
         <v>2</v>
@@ -2597,10 +2755,10 @@
         <v>11</v>
       </c>
       <c r="E8" s="9"/>
-      <c r="F8" s="72" t="s">
+      <c r="F8" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="G8" s="73"/>
+      <c r="G8" s="80"/>
       <c r="I8" s="12">
         <f t="shared" ref="I8" si="0">SUM(I7,1)</f>
         <v>2</v>
@@ -2615,10 +2773,10 @@
         <v>11</v>
       </c>
       <c r="M8" s="14"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="68"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N8" s="84"/>
+      <c r="O8" s="85"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="7">
         <f t="shared" ref="A9:A10" si="1">SUM(A8,1)</f>
         <v>3</v>
@@ -2633,17 +2791,17 @@
         <v>11</v>
       </c>
       <c r="E9" s="9"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="73"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="80"/>
       <c r="I9" s="24"/>
       <c r="J9" s="25"/>
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N9" s="88"/>
+      <c r="O9" s="88"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -2656,69 +2814,69 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="72" t="s">
+      <c r="F10" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="G10" s="73"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="G10" s="80"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A12" s="79" t="s">
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="80" t="s">
+      <c r="B12" s="71"/>
+      <c r="C12" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="82"/>
-      <c r="I12" s="79" t="s">
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="74"/>
+      <c r="I12" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="79"/>
-      <c r="K12" s="80" t="s">
+      <c r="J12" s="71"/>
+      <c r="K12" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="L12" s="81"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="82"/>
-    </row>
-    <row r="13" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="83" t="s">
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="74"/>
+    </row>
+    <row r="13" spans="1:15" ht="16.5" customHeight="1">
+      <c r="A13" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="84"/>
-      <c r="C13" s="80" t="s">
+      <c r="B13" s="76"/>
+      <c r="C13" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="82"/>
-      <c r="I13" s="83" t="s">
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="74"/>
+      <c r="I13" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="J13" s="84"/>
-      <c r="K13" s="80" t="s">
+      <c r="J13" s="76"/>
+      <c r="K13" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="82"/>
-    </row>
-    <row r="14" spans="1:15" ht="26.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="74"/>
+    </row>
+    <row r="14" spans="1:15" ht="24.75" thickBot="1">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
@@ -2734,10 +2892,10 @@
       <c r="E14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="76" t="s">
+      <c r="F14" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="76"/>
+      <c r="G14" s="77"/>
       <c r="I14" s="3" t="s">
         <v>2</v>
       </c>
@@ -2753,12 +2911,12 @@
       <c r="M14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N14" s="76" t="s">
+      <c r="N14" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="O14" s="76"/>
-    </row>
-    <row r="15" spans="1:15" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="O14" s="77"/>
+    </row>
+    <row r="15" spans="1:15" ht="17.25" thickTop="1">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -2774,10 +2932,10 @@
       <c r="E15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="77" t="s">
+      <c r="F15" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="G15" s="78"/>
+      <c r="G15" s="70"/>
       <c r="I15" s="4">
         <v>1</v>
       </c>
@@ -2793,12 +2951,12 @@
       <c r="M15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N15" s="77" t="s">
+      <c r="N15" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="O15" s="78"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O15" s="70"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="4">
         <v>2</v>
       </c>
@@ -2814,8 +2972,8 @@
       <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="69"/>
-      <c r="G16" s="70"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="83"/>
       <c r="I16" s="4">
         <v>2</v>
       </c>
@@ -2831,10 +2989,10 @@
       <c r="M16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N16" s="69"/>
-      <c r="O16" s="70"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N16" s="82"/>
+      <c r="O16" s="83"/>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="4">
         <v>3</v>
       </c>
@@ -2848,8 +3006,8 @@
         <v>95</v>
       </c>
       <c r="E17" s="6"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="70"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="83"/>
       <c r="I17" s="4">
         <v>3</v>
       </c>
@@ -2865,10 +3023,10 @@
       <c r="M17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N17" s="69"/>
-      <c r="O17" s="70"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N17" s="82"/>
+      <c r="O17" s="83"/>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="4">
         <v>4</v>
       </c>
@@ -2882,10 +3040,10 @@
         <v>11</v>
       </c>
       <c r="E18" s="6"/>
-      <c r="F18" s="69" t="s">
+      <c r="F18" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="70"/>
+      <c r="G18" s="83"/>
       <c r="I18" s="4">
         <v>4</v>
       </c>
@@ -2899,10 +3057,10 @@
         <v>11</v>
       </c>
       <c r="M18" s="6"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="70"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N18" s="82"/>
+      <c r="O18" s="83"/>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="4">
         <v>5</v>
       </c>
@@ -2916,10 +3074,10 @@
         <v>11</v>
       </c>
       <c r="E19" s="6"/>
-      <c r="F19" s="69" t="s">
+      <c r="F19" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="70"/>
+      <c r="G19" s="83"/>
       <c r="I19" s="4">
         <v>5</v>
       </c>
@@ -2933,10 +3091,10 @@
         <v>11</v>
       </c>
       <c r="M19" s="6"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="70"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N19" s="82"/>
+      <c r="O19" s="83"/>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="4">
         <v>6</v>
       </c>
@@ -2948,8 +3106,8 @@
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="73"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="80"/>
       <c r="I20" s="7">
         <v>6</v>
       </c>
@@ -2961,12 +3119,12 @@
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
-      <c r="N20" s="72" t="s">
+      <c r="N20" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="O20" s="73"/>
-    </row>
-    <row r="21" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O20" s="80"/>
+    </row>
+    <row r="21" spans="1:15" ht="16.5" customHeight="1">
       <c r="A21" s="4">
         <v>7</v>
       </c>
@@ -2978,10 +3136,10 @@
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="72" t="s">
+      <c r="F21" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="73"/>
+      <c r="G21" s="80"/>
       <c r="I21" s="12">
         <v>7</v>
       </c>
@@ -2993,12 +3151,12 @@
       </c>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
-      <c r="N21" s="67" t="s">
+      <c r="N21" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="O21" s="68"/>
-    </row>
-    <row r="22" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O21" s="85"/>
+    </row>
+    <row r="22" spans="1:15" ht="32.25" customHeight="1">
       <c r="A22" s="12">
         <v>8</v>
       </c>
@@ -3012,10 +3170,10 @@
         <v>11</v>
       </c>
       <c r="E22" s="14"/>
-      <c r="F22" s="74" t="s">
+      <c r="F22" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="G22" s="75"/>
+      <c r="G22" s="90"/>
       <c r="I22" s="24"/>
       <c r="J22" s="25"/>
       <c r="K22" s="24"/>
@@ -3024,55 +3182,55 @@
       <c r="N22" s="26"/>
       <c r="O22" s="26"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A24" s="79" t="s">
+    <row r="24" spans="1:15">
+      <c r="A24" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="79"/>
-      <c r="C24" s="80" t="s">
+      <c r="B24" s="71"/>
+      <c r="C24" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="82"/>
-      <c r="I24" s="79" t="s">
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="74"/>
+      <c r="I24" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="J24" s="79"/>
-      <c r="K24" s="80" t="s">
+      <c r="J24" s="71"/>
+      <c r="K24" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="L24" s="81"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="81"/>
-      <c r="O24" s="82"/>
-    </row>
-    <row r="25" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="83" t="s">
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="74"/>
+    </row>
+    <row r="25" spans="1:15" ht="16.5" customHeight="1">
+      <c r="A25" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="B25" s="84"/>
-      <c r="C25" s="80" t="s">
+      <c r="B25" s="76"/>
+      <c r="C25" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="82"/>
-      <c r="I25" s="83" t="s">
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="I25" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="J25" s="84"/>
-      <c r="K25" s="80" t="s">
+      <c r="J25" s="76"/>
+      <c r="K25" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="L25" s="81"/>
-      <c r="M25" s="81"/>
-      <c r="N25" s="81"/>
-      <c r="O25" s="82"/>
-    </row>
-    <row r="26" spans="1:15" ht="26.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="74"/>
+    </row>
+    <row r="26" spans="1:15" ht="24.75" thickBot="1">
       <c r="A26" s="3" t="s">
         <v>2</v>
       </c>
@@ -3088,10 +3246,10 @@
       <c r="E26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="76" t="s">
+      <c r="F26" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="76"/>
+      <c r="G26" s="77"/>
       <c r="I26" s="3" t="s">
         <v>2</v>
       </c>
@@ -3107,12 +3265,12 @@
       <c r="M26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N26" s="76" t="s">
+      <c r="N26" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="O26" s="76"/>
-    </row>
-    <row r="27" spans="1:15" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="O26" s="77"/>
+    </row>
+    <row r="27" spans="1:15" ht="17.25" thickTop="1">
       <c r="A27" s="4">
         <v>1</v>
       </c>
@@ -3128,8 +3286,8 @@
       <c r="E27" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="77"/>
-      <c r="G27" s="78"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="70"/>
       <c r="I27" s="4">
         <v>1</v>
       </c>
@@ -3145,12 +3303,12 @@
       <c r="M27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N27" s="77" t="s">
+      <c r="N27" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="O27" s="78"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O27" s="70"/>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="12">
         <v>2</v>
       </c>
@@ -3164,8 +3322,8 @@
         <v>11</v>
       </c>
       <c r="E28" s="14"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="68"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="85"/>
       <c r="I28" s="4">
         <v>2</v>
       </c>
@@ -3181,10 +3339,10 @@
       <c r="M28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N28" s="69"/>
-      <c r="O28" s="70"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N28" s="82"/>
+      <c r="O28" s="83"/>
+    </row>
+    <row r="29" spans="1:15">
       <c r="I29" s="4">
         <v>3</v>
       </c>
@@ -3200,21 +3358,21 @@
       <c r="M29" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N29" s="69"/>
-      <c r="O29" s="70"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A30" s="79" t="s">
+      <c r="N29" s="82"/>
+      <c r="O29" s="83"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="79"/>
-      <c r="C30" s="80" t="s">
+      <c r="B30" s="71"/>
+      <c r="C30" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="82"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="74"/>
       <c r="I30" s="4">
         <v>4</v>
       </c>
@@ -3228,21 +3386,21 @@
         <v>11</v>
       </c>
       <c r="M30" s="6"/>
-      <c r="N30" s="69"/>
-      <c r="O30" s="70"/>
-    </row>
-    <row r="31" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="83" t="s">
+      <c r="N30" s="82"/>
+      <c r="O30" s="83"/>
+    </row>
+    <row r="31" spans="1:15" ht="16.5" customHeight="1">
+      <c r="A31" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="84"/>
-      <c r="C31" s="80" t="s">
+      <c r="B31" s="76"/>
+      <c r="C31" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="81"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="82"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="74"/>
       <c r="I31" s="4">
         <v>5</v>
       </c>
@@ -3254,12 +3412,12 @@
       </c>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
-      <c r="N31" s="72" t="s">
+      <c r="N31" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="O31" s="73"/>
-    </row>
-    <row r="32" spans="1:15" ht="26.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="O31" s="80"/>
+    </row>
+    <row r="32" spans="1:15" ht="24.75" thickBot="1">
       <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
@@ -3275,10 +3433,10 @@
       <c r="E32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F32" s="76" t="s">
+      <c r="F32" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="G32" s="76"/>
+      <c r="G32" s="77"/>
       <c r="I32" s="12">
         <v>6</v>
       </c>
@@ -3290,12 +3448,12 @@
       </c>
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
-      <c r="N32" s="67" t="s">
+      <c r="N32" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="O32" s="68"/>
-    </row>
-    <row r="33" spans="1:15" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="O32" s="85"/>
+    </row>
+    <row r="33" spans="1:15" ht="17.25" thickTop="1">
       <c r="A33" s="4">
         <v>1</v>
       </c>
@@ -3311,17 +3469,17 @@
       <c r="E33" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="77"/>
-      <c r="G33" s="78"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="70"/>
       <c r="I33" s="24"/>
       <c r="J33" s="25"/>
       <c r="K33" s="24"/>
       <c r="L33" s="24"/>
       <c r="M33" s="24"/>
-      <c r="N33" s="71"/>
-      <c r="O33" s="71"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="N33" s="88"/>
+      <c r="O33" s="88"/>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="4">
         <v>2</v>
       </c>
@@ -3333,23 +3491,23 @@
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="69" t="s">
+      <c r="F34" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="G34" s="70"/>
-      <c r="I34" s="79" t="s">
+      <c r="G34" s="83"/>
+      <c r="I34" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="J34" s="79"/>
-      <c r="K34" s="80" t="s">
+      <c r="J34" s="71"/>
+      <c r="K34" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="L34" s="81"/>
-      <c r="M34" s="81"/>
-      <c r="N34" s="81"/>
-      <c r="O34" s="82"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L34" s="73"/>
+      <c r="M34" s="73"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="74"/>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="7">
         <v>3</v>
       </c>
@@ -3361,23 +3519,23 @@
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="69" t="s">
+      <c r="F35" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="G35" s="70"/>
-      <c r="I35" s="83" t="s">
+      <c r="G35" s="83"/>
+      <c r="I35" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="J35" s="84"/>
-      <c r="K35" s="80" t="s">
+      <c r="J35" s="76"/>
+      <c r="K35" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="L35" s="81"/>
-      <c r="M35" s="81"/>
-      <c r="N35" s="81"/>
-      <c r="O35" s="82"/>
-    </row>
-    <row r="36" spans="1:15" ht="26.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="74"/>
+    </row>
+    <row r="36" spans="1:15" ht="24.75" thickBot="1">
       <c r="A36" s="12">
         <v>4</v>
       </c>
@@ -3389,10 +3547,10 @@
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
-      <c r="F36" s="85" t="s">
+      <c r="F36" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="G36" s="86"/>
+      <c r="G36" s="87"/>
       <c r="I36" s="3" t="s">
         <v>2</v>
       </c>
@@ -3408,12 +3566,12 @@
       <c r="M36" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N36" s="76" t="s">
+      <c r="N36" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="O36" s="76"/>
-    </row>
-    <row r="37" spans="1:15" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="O36" s="77"/>
+    </row>
+    <row r="37" spans="1:15" ht="17.25" thickTop="1">
       <c r="I37" s="4">
         <v>1</v>
       </c>
@@ -3429,21 +3587,21 @@
       <c r="M37" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N37" s="77"/>
-      <c r="O37" s="78"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A38" s="79" t="s">
+      <c r="N37" s="69"/>
+      <c r="O37" s="70"/>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="79"/>
-      <c r="C38" s="80" t="s">
+      <c r="B38" s="71"/>
+      <c r="C38" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="D38" s="81"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="82"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="74"/>
       <c r="I38" s="12">
         <v>2</v>
       </c>
@@ -3459,23 +3617,23 @@
       <c r="M38" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="N38" s="67"/>
-      <c r="O38" s="68"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A39" s="83" t="s">
+      <c r="N38" s="84"/>
+      <c r="O38" s="85"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="B39" s="84"/>
-      <c r="C39" s="80" t="s">
+      <c r="B39" s="76"/>
+      <c r="C39" s="72" t="s">
         <v>196</v>
       </c>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="82"/>
-    </row>
-    <row r="40" spans="1:15" ht="26.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="74"/>
+    </row>
+    <row r="40" spans="1:15" ht="24.75" thickBot="1">
       <c r="A40" s="54" t="s">
         <v>2</v>
       </c>
@@ -3491,12 +3649,12 @@
       <c r="E40" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="76" t="s">
+      <c r="F40" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="G40" s="76"/>
-    </row>
-    <row r="41" spans="1:15" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="G40" s="77"/>
+    </row>
+    <row r="41" spans="1:15" ht="17.25" thickTop="1">
       <c r="A41" s="4">
         <v>1</v>
       </c>
@@ -3512,10 +3670,10 @@
       <c r="E41" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="77"/>
-      <c r="G41" s="78"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="F41" s="69"/>
+      <c r="G41" s="70"/>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="4">
         <v>2</v>
       </c>
@@ -3531,65 +3689,27 @@
       <c r="E42" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="77"/>
-      <c r="G42" s="78"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:O35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:O34"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N18:O18"/>
     <mergeCell ref="F27:G27"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="I5:J5"/>
@@ -3606,22 +3726,60 @@
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="K13:O13"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:O34"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:O35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="F40:G40"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3630,24 +3788,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="31"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="26.5" customWidth="1"/>
     <col min="4" max="4" width="38.75" style="29" customWidth="1"/>
-    <col min="5" max="5" width="10.58203125" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6">
       <c r="A1" s="33" t="s">
         <v>123</v>
       </c>
@@ -3667,7 +3825,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="33">
       <c r="A2" s="37">
         <v>2</v>
       </c>
@@ -3687,7 +3845,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6">
       <c r="A3" s="37">
         <v>1</v>
       </c>
@@ -3705,7 +3863,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6">
       <c r="A4" s="37">
         <v>1</v>
       </c>
@@ -3723,7 +3881,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="49.5">
       <c r="A5" s="37">
         <v>1</v>
       </c>
@@ -3741,7 +3899,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="30" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" s="30" customFormat="1" ht="17.25" thickBot="1">
       <c r="A6" s="41">
         <v>1</v>
       </c>
@@ -3759,7 +3917,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="34.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="33.75" thickTop="1">
       <c r="A7" s="55">
         <v>2</v>
       </c>
@@ -3779,7 +3937,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6">
       <c r="A8" s="59">
         <v>1</v>
       </c>
@@ -3797,7 +3955,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="33">
       <c r="A9" s="59">
         <v>1</v>
       </c>
@@ -3815,7 +3973,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="30" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:6" s="30" customFormat="1" ht="17.25" thickBot="1">
       <c r="A10" s="63">
         <v>1</v>
       </c>
@@ -3833,7 +3991,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="34.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" ht="33.75" thickTop="1">
       <c r="A11" s="55">
         <v>2</v>
       </c>
@@ -3853,7 +4011,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" ht="33">
       <c r="A12" s="59">
         <v>1</v>
       </c>
@@ -3871,7 +4029,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="30" customFormat="1" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:6" s="30" customFormat="1" ht="33.75" thickBot="1">
       <c r="A13" s="63">
         <v>1</v>
       </c>
@@ -3889,7 +4047,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="34.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" ht="33.75" thickTop="1">
       <c r="A14" s="55">
         <v>1</v>
       </c>
@@ -3909,7 +4067,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" ht="33">
       <c r="A15" s="59">
         <v>1</v>
       </c>
@@ -3927,7 +4085,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="27" customFormat="1" ht="34" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" s="27" customFormat="1" ht="33">
       <c r="A16" s="59">
         <v>2</v>
       </c>
@@ -3945,7 +4103,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" s="27" customFormat="1">
       <c r="A17" s="59">
         <v>1</v>
       </c>
@@ -3963,7 +4121,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="30" customFormat="1" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:6" s="30" customFormat="1" ht="33.75" thickBot="1">
       <c r="A18" s="63">
         <v>2</v>
       </c>
@@ -3981,7 +4139,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="32" customFormat="1" ht="35" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:6" s="32" customFormat="1" ht="34.5" thickTop="1" thickBot="1">
       <c r="A19" s="44">
         <v>1</v>
       </c>
@@ -4001,7 +4159,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="34.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" ht="33.75" thickTop="1">
       <c r="A20" s="38">
         <v>1</v>
       </c>
@@ -4021,7 +4179,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" ht="33">
       <c r="A21" s="37">
         <v>1</v>
       </c>
@@ -4039,7 +4197,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6">
       <c r="A22" s="37">
         <v>1</v>
       </c>
@@ -4057,7 +4215,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="30" customFormat="1" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:6" s="30" customFormat="1" ht="33.75" thickBot="1">
       <c r="A23" s="41">
         <v>1</v>
       </c>
@@ -4075,7 +4233,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="34.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" ht="33.75" thickTop="1">
       <c r="A24" s="38">
         <v>2</v>
       </c>
@@ -4095,7 +4253,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="30" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:6" s="30" customFormat="1" ht="17.25" thickBot="1">
       <c r="A25" s="41">
         <v>1</v>
       </c>
@@ -4113,7 +4271,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="32" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:6" s="32" customFormat="1" ht="18" thickTop="1" thickBot="1">
       <c r="A26" s="44">
         <v>1</v>
       </c>
@@ -4133,7 +4291,206 @@
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="17.5" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="27" spans="1:6" ht="17.25" thickTop="1"/>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="16.5" style="31" customWidth="1"/>
+    <col min="2" max="2" width="13" style="31" customWidth="1"/>
+    <col min="3" max="3" width="25.875" style="31" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="42" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="33">
+      <c r="B2" s="91" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="92" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="91" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2" s="91" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="91" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="91" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="91"/>
+      <c r="E3" s="28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="91"/>
+      <c r="C4" s="91" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" s="91"/>
+      <c r="E4" s="28" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="91"/>
+      <c r="C5" s="91" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" s="91"/>
+      <c r="E5" s="28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="91"/>
+      <c r="C6" s="91" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="91"/>
+      <c r="E6" s="28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="49.5">
+      <c r="B7" s="91"/>
+      <c r="C7" s="91" t="s">
+        <v>203</v>
+      </c>
+      <c r="D7" s="91"/>
+      <c r="E7" s="36" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="91" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8" s="91" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" s="91"/>
+      <c r="E8" s="28" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="91"/>
+      <c r="C9" s="91" t="s">
+        <v>205</v>
+      </c>
+      <c r="D9" s="91"/>
+      <c r="E9" s="28" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="91"/>
+      <c r="C10" s="91" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="91"/>
+      <c r="E10" s="36" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="33">
+      <c r="B11" s="91"/>
+      <c r="C11" s="91" t="s">
+        <v>207</v>
+      </c>
+      <c r="D11" s="91"/>
+      <c r="E11" s="36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="33">
+      <c r="B12" s="91"/>
+      <c r="C12" s="91" t="s">
+        <v>208</v>
+      </c>
+      <c r="D12" s="91"/>
+      <c r="E12" s="36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="33">
+      <c r="B13" s="91" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="91" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" s="91"/>
+      <c r="E13" s="36" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="33">
+      <c r="B14" s="91" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" s="91" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" s="91"/>
+      <c r="E14" s="36" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="33">
+      <c r="B15" s="91"/>
+      <c r="C15" s="91" t="s">
+        <v>215</v>
+      </c>
+      <c r="D15" s="91"/>
+      <c r="E15" s="36" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="92" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" s="91" t="s">
+        <v>214</v>
+      </c>
+      <c r="D16" s="91"/>
+      <c r="E16" s="28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="49.5">
+      <c r="B17" s="91" t="s">
+        <v>216</v>
+      </c>
+      <c r="C17" s="91" t="s">
+        <v>213</v>
+      </c>
+      <c r="D17" s="91"/>
+      <c r="E17" s="36" t="s">
+        <v>233</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
